--- a/Graphs/11次高調波の比較.xlsx
+++ b/Graphs/11次高調波の比較.xlsx
@@ -179,7 +179,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>変化前</c:v>
+            <c:v>測定1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1399,7 +1399,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>変化後</c:v>
+            <c:v>測定2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2623,11 +2623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="634213536"/>
-        <c:axId val="634213928"/>
+        <c:axId val="485303424"/>
+        <c:axId val="485306168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="634213536"/>
+        <c:axId val="485303424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,12 +2736,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634213928"/>
+        <c:crossAx val="485306168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="634213928"/>
+        <c:axId val="485306168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +2854,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634213536"/>
+        <c:crossAx val="485303424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2872,8 +2872,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.83553044569993717"/>
-          <c:y val="0.40694157395496122"/>
+          <c:x val="0.26428123038292528"/>
+          <c:y val="0.18671416521767814"/>
           <c:w val="7.1563088512241052E-2"/>
           <c:h val="8.079051159897653E-2"/>
         </c:manualLayout>
@@ -4202,11 +4202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="634208048"/>
-        <c:axId val="634215496"/>
+        <c:axId val="485306952"/>
+        <c:axId val="485299112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="634208048"/>
+        <c:axId val="485306952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,7 +4248,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4315,12 +4314,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634215496"/>
+        <c:crossAx val="485299112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="634215496"/>
+        <c:axId val="485299112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4366,7 +4365,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4433,7 +4431,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634208048"/>
+        <c:crossAx val="485306952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5740,11 +5738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="634224512"/>
-        <c:axId val="634222552"/>
+        <c:axId val="485299896"/>
+        <c:axId val="485300288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="634224512"/>
+        <c:axId val="485299896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,7 +5784,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5853,12 +5850,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634222552"/>
+        <c:crossAx val="485300288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="634222552"/>
+        <c:axId val="485300288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5901,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5971,7 +5967,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634224512"/>
+        <c:crossAx val="485299896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8087,7 +8083,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Graphs/11次高調波の比較.xlsx
+++ b/Graphs/11次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -294,9 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -308,22 +305,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -378,7 +378,7 @@
             <c:v>測定1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -388,7 +388,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1214,7 +1214,7 @@
             <c:v>測定2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1224,7 +1224,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2051,13 +2051,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215100832"/>
-        <c:axId val="215093776"/>
+        <c:axId val="454862552"/>
+        <c:axId val="454867648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215100832"/>
+        <c:axId val="454862552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2090,10 +2091,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>XUV-IR delay[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2149,7 +2150,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2164,12 +2165,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215093776"/>
+        <c:crossAx val="454867648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215093776"/>
+        <c:axId val="454867648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,14 +2205,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>[a.u]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2267,7 +2268,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2282,7 +2283,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215100832"/>
+        <c:crossAx val="454862552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2296,14 +2297,60 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4111738857501569"/>
-          <c:y val="0.10053822266830652"/>
-          <c:w val="7.1563088512241052E-2"/>
-          <c:h val="8.079051159897653E-2"/>
+          <c:x val="0.88027981945203237"/>
+          <c:y val="0.27577920804870709"/>
+          <c:w val="7.2897369508862914E-2"/>
+          <c:h val="0.11540737853761118"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2387,7 +2434,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3274,8 +3320,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467553472"/>
-        <c:axId val="467551120"/>
+        <c:axId val="454863728"/>
+        <c:axId val="578459648"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3800,7 +3846,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467553472"/>
+        <c:axId val="454863728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,12 +3903,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467551120"/>
+        <c:crossAx val="578459648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467551120"/>
+        <c:axId val="578459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,7 +3965,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467553472"/>
+        <c:crossAx val="454863728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4842,11 +4888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1037481216"/>
-        <c:axId val="776617152"/>
+        <c:axId val="578456904"/>
+        <c:axId val="578462392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1037481216"/>
+        <c:axId val="578456904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +4934,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4955,12 +5000,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="776617152"/>
+        <c:crossAx val="578462392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="776617152"/>
+        <c:axId val="578462392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5006,7 +5051,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5073,7 +5117,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037481216"/>
+        <c:crossAx val="578456904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5691,11 +5735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="774601496"/>
-        <c:axId val="774601888"/>
+        <c:axId val="578464352"/>
+        <c:axId val="578461216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="774601496"/>
+        <c:axId val="578464352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -5738,7 +5782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5805,12 +5848,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774601888"/>
+        <c:crossAx val="578461216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="774601888"/>
+        <c:axId val="578461216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5856,7 +5899,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5923,7 +5965,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="774601496"/>
+        <c:crossAx val="578464352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6028,7 +6070,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6317,8 +6358,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467822952"/>
-        <c:axId val="467826480"/>
+        <c:axId val="474835448"/>
+        <c:axId val="474824472"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6584,7 +6625,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467822952"/>
+        <c:axId val="474835448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,12 +6682,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467826480"/>
+        <c:crossAx val="474824472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467826480"/>
+        <c:axId val="474824472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +6744,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467822952"/>
+        <c:crossAx val="474835448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6767,7 +6808,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7056,11 +7096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559057832"/>
-        <c:axId val="559067632"/>
+        <c:axId val="474826824"/>
+        <c:axId val="474827608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559057832"/>
+        <c:axId val="474826824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7117,12 +7157,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559067632"/>
+        <c:crossAx val="474827608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559067632"/>
+        <c:axId val="474827608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7219,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559057832"/>
+        <c:crossAx val="474826824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10571,13 +10611,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11064,8 +11104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11096,10 +11136,10 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="17"/>
       <c r="H1" t="s">
         <v>9</v>
       </c>
@@ -11108,7 +11148,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>33</v>
       </c>
       <c r="B2">
@@ -11136,7 +11176,7 @@
         <f t="shared" ref="I2:I33" si="2">(C2-$E$6)/$E$6</f>
         <v>-0.21398924950670206</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f>MOD(B2,1.33)</f>
         <v>1.3299999999998917</v>
       </c>
@@ -11170,7 +11210,7 @@
         <f t="shared" si="2"/>
         <v>-0.11247193304756073</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="3">MOD(B3,1.33)</f>
         <v>0.88666666666659211</v>
       </c>
@@ -11204,13 +11244,13 @@
         <f t="shared" si="2"/>
         <v>-3.0006123698714023E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333319302</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>36</v>
       </c>
       <c r="B5">
@@ -11238,7 +11278,7 @@
         <f t="shared" si="2"/>
         <v>5.7834932299108662E-3</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -11272,13 +11312,13 @@
         <f t="shared" si="2"/>
         <v>-0.16295842688984147</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999988724</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>38</v>
       </c>
       <c r="B7">
@@ -11299,7 +11339,7 @@
         <f t="shared" si="2"/>
         <v>-0.17506974212424303</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -11326,7 +11366,7 @@
         <f t="shared" si="2"/>
         <v>-0.14295434442403213</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659566</v>
       </c>
@@ -11353,13 +11393,13 @@
         <f t="shared" si="2"/>
         <v>-3.7762808736476833E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333319658</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>41</v>
       </c>
       <c r="B10">
@@ -11380,7 +11420,7 @@
         <f t="shared" si="2"/>
         <v>4.0620534803021024E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -11407,13 +11447,13 @@
         <f t="shared" si="2"/>
         <v>-7.6137987344355992E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43</v>
       </c>
       <c r="B12">
@@ -11434,7 +11474,7 @@
         <f t="shared" si="2"/>
         <v>-0.20800163298632374</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -11461,7 +11501,7 @@
         <f t="shared" si="2"/>
         <v>-0.15629039940123834</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659211</v>
       </c>
@@ -11488,13 +11528,13 @@
         <f t="shared" si="2"/>
         <v>-8.0628699734639722E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333319302</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>46</v>
       </c>
       <c r="B15">
@@ -11515,7 +11555,7 @@
         <f t="shared" si="2"/>
         <v>8.9610124515207182E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998864</v>
       </c>
@@ -11542,13 +11582,13 @@
         <f t="shared" si="2"/>
         <v>-5.4773082942097026E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>48</v>
       </c>
       <c r="B17">
@@ -11569,7 +11609,7 @@
         <f t="shared" si="2"/>
         <v>-0.24025311288017964</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998882</v>
       </c>
@@ -11596,7 +11636,7 @@
         <f t="shared" si="2"/>
         <v>-0.18826971490780431</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>0.99749999999989214</v>
       </c>
@@ -11623,7 +11663,7 @@
         <f t="shared" si="2"/>
         <v>-0.14608423487786623</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989612</v>
       </c>
@@ -11650,13 +11690,13 @@
         <f t="shared" si="2"/>
         <v>-2.6604068857589983E-2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>52</v>
       </c>
       <c r="B21">
@@ -11677,7 +11717,7 @@
         <f t="shared" si="2"/>
         <v>0.1528883445601143</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -11704,13 +11744,13 @@
         <f t="shared" si="2"/>
         <v>-0.1851398244539702</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>54</v>
       </c>
       <c r="B23">
@@ -11731,7 +11771,7 @@
         <f t="shared" si="2"/>
         <v>-0.20759338640538885</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -11758,7 +11798,7 @@
         <f t="shared" si="2"/>
         <v>-0.19167176974892836</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659211</v>
       </c>
@@ -11785,13 +11825,13 @@
         <f t="shared" si="2"/>
         <v>7.2463768115942032E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>57</v>
       </c>
       <c r="B26">
@@ -11812,7 +11852,7 @@
         <f t="shared" si="2"/>
         <v>9.7094645165680074E-2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -11839,13 +11879,13 @@
         <f t="shared" si="2"/>
         <v>-0.19330475607266789</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>59</v>
       </c>
       <c r="B28">
@@ -11866,7 +11906,7 @@
         <f t="shared" si="2"/>
         <v>-0.36354358032251483</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -11893,7 +11933,7 @@
         <f t="shared" si="2"/>
         <v>-0.24283867455943389</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666658855</v>
       </c>
@@ -11920,13 +11960,13 @@
         <f t="shared" si="2"/>
         <v>-0.12961828944682588</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333328895</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>62</v>
       </c>
       <c r="B31">
@@ -11947,7 +11987,7 @@
         <f t="shared" si="2"/>
         <v>0.10975028917466149</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -11974,7 +12014,7 @@
         <f t="shared" si="2"/>
         <v>8.1853439477444376E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659033</v>
       </c>
@@ -12001,13 +12041,13 @@
         <f t="shared" si="2"/>
         <v>-0.24297475675307886</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>65</v>
       </c>
       <c r="B34">
@@ -12028,7 +12068,7 @@
         <f t="shared" ref="I34:I65" si="6">(C34-$E$6)/$E$6</f>
         <v>-0.32802612778117984</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -12055,7 +12095,7 @@
         <f t="shared" si="6"/>
         <v>-0.23834796216915016</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>0.99749999999988859</v>
       </c>
@@ -12082,7 +12122,7 @@
         <f t="shared" si="6"/>
         <v>-7.2803973600054431E-3</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989257</v>
       </c>
@@ -12109,13 +12149,13 @@
         <f t="shared" si="6"/>
         <v>0.12784922092944137</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>0.33249999999988944</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>69</v>
       </c>
       <c r="B38">
@@ -12136,7 +12176,7 @@
         <f t="shared" si="6"/>
         <v>0.18718105735864463</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -12163,7 +12203,7 @@
         <f t="shared" si="6"/>
         <v>-5.4637000748452062E-2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989434</v>
       </c>
@@ -12190,7 +12230,7 @@
         <f t="shared" si="6"/>
         <v>-0.32190242906715655</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -12217,7 +12257,7 @@
         <f t="shared" si="6"/>
         <v>-0.27264067496768046</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <f t="shared" si="3"/>
         <v>0.99749999999989214</v>
       </c>
@@ -12244,7 +12284,7 @@
         <f t="shared" si="6"/>
         <v>-9.7502891746614959E-2</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999988901</v>
       </c>
@@ -12271,7 +12311,7 @@
         <f t="shared" si="6"/>
         <v>0.13029870041505068</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <f t="shared" si="3"/>
         <v>0.33249999999989299</v>
       </c>
@@ -12298,7 +12338,7 @@
         <f t="shared" si="6"/>
         <v>0.21970470163979045</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -12325,7 +12365,7 @@
         <f t="shared" si="6"/>
         <v>-8.6616316255018033E-2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659033</v>
       </c>
@@ -12352,7 +12392,7 @@
         <f t="shared" si="6"/>
         <v>-0.31278492209294412</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333329072</v>
       </c>
@@ -12379,7 +12419,7 @@
         <f t="shared" si="6"/>
         <v>-0.35388174457372251</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -12406,7 +12446,7 @@
         <f t="shared" si="6"/>
         <v>-0.20323875620875009</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659211</v>
       </c>
@@ -12433,7 +12473,7 @@
         <f t="shared" si="6"/>
         <v>1.4288630332720963E-3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <f t="shared" si="3"/>
         <v>0.4433333333332925</v>
       </c>
@@ -12460,7 +12500,7 @@
         <f t="shared" si="6"/>
         <v>0.27032727767571613</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -12487,7 +12527,7 @@
         <f t="shared" si="6"/>
         <v>0.14948628971899028</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659388</v>
       </c>
@@ -12514,7 +12554,7 @@
         <f t="shared" si="6"/>
         <v>-0.16663264611825543</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333329428</v>
       </c>
@@ -12541,7 +12581,7 @@
         <f t="shared" si="6"/>
         <v>-0.39375382731169628</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -12568,7 +12608,7 @@
         <f t="shared" si="6"/>
         <v>-0.33156426481594881</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <f t="shared" si="3"/>
         <v>1.0639999999998899</v>
       </c>
@@ -12595,7 +12635,7 @@
         <f t="shared" si="6"/>
         <v>-0.2156222358304416</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <f t="shared" si="3"/>
         <v>0.79799999999989168</v>
       </c>
@@ -12622,7 +12662,7 @@
         <f t="shared" si="6"/>
         <v>3.1366945635163637E-2</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <f t="shared" si="3"/>
         <v>0.53199999999989345</v>
       </c>
@@ -12649,7 +12689,7 @@
         <f t="shared" si="6"/>
         <v>0.20527998911342452</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <f t="shared" si="3"/>
         <v>0.26599999999989521</v>
       </c>
@@ -12676,7 +12716,7 @@
         <f t="shared" si="6"/>
         <v>0.25399741443832075</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -12703,7 +12743,7 @@
         <f t="shared" si="6"/>
         <v>-4.4226712934612505E-3</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659033</v>
       </c>
@@ -12730,7 +12770,7 @@
         <f t="shared" si="6"/>
         <v>-0.33115601823501395</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <f t="shared" si="3"/>
         <v>0.44333333333329072</v>
       </c>
@@ -12757,7 +12797,7 @@
         <f t="shared" si="6"/>
         <v>-0.32993127849220927</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -12784,7 +12824,7 @@
         <f t="shared" si="6"/>
         <v>-0.36803429271279853</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -12811,7 +12851,7 @@
         <f t="shared" si="6"/>
         <v>-0.20092535891678573</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <f t="shared" si="3"/>
         <v>0.99749999999989036</v>
       </c>
@@ -12838,7 +12878,7 @@
         <f t="shared" si="6"/>
         <v>6.3482343335374572E-2</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989434</v>
       </c>
@@ -12865,7 +12905,7 @@
         <f t="shared" si="6"/>
         <v>0.26134585289514867</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <f t="shared" si="3"/>
         <v>0.33249999999989122</v>
       </c>
@@ -12892,7 +12932,7 @@
         <f t="shared" ref="I66:I97" si="8">(C66-$E$6)/$E$6</f>
         <v>0.31700347009593793</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -12919,7 +12959,7 @@
         <f t="shared" si="8"/>
         <v>-4.1709192352180714E-2</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <f t="shared" ref="J67:J130" si="9">MOD(B67,1.33)</f>
         <v>0.88666666666659566</v>
       </c>
@@ -12946,7 +12986,7 @@
         <f t="shared" si="8"/>
         <v>-0.29563856569367897</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <f t="shared" si="9"/>
         <v>0.44333333333329605</v>
       </c>
@@ -12973,7 +13013,7 @@
         <f t="shared" si="8"/>
         <v>-0.380553854528135</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999998899</v>
       </c>
@@ -13000,7 +13040,7 @@
         <f t="shared" si="8"/>
         <v>-0.30353133292508677</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <f t="shared" si="9"/>
         <v>1.0639999999998917</v>
       </c>
@@ -13027,7 +13067,7 @@
         <f t="shared" si="8"/>
         <v>-0.2828468394910526</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <f t="shared" si="9"/>
         <v>0.79799999999989346</v>
       </c>
@@ -13054,7 +13094,7 @@
         <f t="shared" si="8"/>
         <v>-2.891746614955433E-2</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <f t="shared" si="9"/>
         <v>0.53199999999989522</v>
       </c>
@@ -13081,7 +13121,7 @@
         <f t="shared" si="8"/>
         <v>0.16132544056610193</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <f t="shared" si="9"/>
         <v>0.26599999999988988</v>
       </c>
@@ -13108,7 +13148,7 @@
         <f t="shared" si="8"/>
         <v>0.29876845614751307</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999998917</v>
       </c>
@@ -13135,7 +13175,7 @@
         <f t="shared" si="8"/>
         <v>0.16363883785806627</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <f t="shared" si="9"/>
         <v>1.0639999999998935</v>
       </c>
@@ -13162,7 +13202,7 @@
         <f t="shared" si="8"/>
         <v>-7.8723549023610256E-2</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <f t="shared" si="9"/>
         <v>0.79799999999989524</v>
       </c>
@@ -13189,7 +13229,7 @@
         <f t="shared" si="8"/>
         <v>-0.23862012655644008</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <f t="shared" si="9"/>
         <v>0.53199999999988989</v>
       </c>
@@ -13216,7 +13256,7 @@
         <f t="shared" si="8"/>
         <v>-0.35646730625297679</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <f t="shared" si="9"/>
         <v>0.26599999999989166</v>
       </c>
@@ -13243,7 +13283,7 @@
         <f t="shared" si="8"/>
         <v>-0.36857862148737836</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999998935</v>
       </c>
@@ -13270,7 +13310,7 @@
         <f t="shared" si="8"/>
         <v>-0.26937470232020139</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <f t="shared" si="9"/>
         <v>0.99749999999989036</v>
       </c>
@@ -13297,7 +13337,7 @@
         <f t="shared" si="8"/>
         <v>-5.0826699326393145E-2</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <f t="shared" si="9"/>
         <v>0.66499999999999382</v>
       </c>
@@ -13324,34 +13364,34 @@
         <f t="shared" si="8"/>
         <v>5.5725658297611759E-2</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <f t="shared" si="9"/>
         <v>0.33249999999989122</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+    <row r="83" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
         <v>114</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>9.3099999999999952</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>9454</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <f t="shared" si="7"/>
         <v>2593.1450381679388</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="2">
         <f t="shared" si="5"/>
         <v>0.37796237532989452</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="2">
         <f t="shared" si="8"/>
         <v>0.28652105871946654</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999999947</v>
       </c>
@@ -13378,7 +13418,7 @@
         <f t="shared" si="8"/>
         <v>0.21249234537660747</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <f t="shared" si="9"/>
         <v>1.1083333333332952</v>
       </c>
@@ -13405,7 +13445,7 @@
         <f t="shared" si="8"/>
         <v>0.20092535891678573</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <f t="shared" si="9"/>
         <v>0.88666666666659566</v>
       </c>
@@ -13432,7 +13472,7 @@
         <f t="shared" si="8"/>
         <v>-0.11056678233653126</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <f t="shared" si="9"/>
         <v>0.66499999999999559</v>
       </c>
@@ -13459,7 +13499,7 @@
         <f t="shared" si="8"/>
         <v>-0.31360141525481389</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <f t="shared" si="9"/>
         <v>0.44333333333329605</v>
       </c>
@@ -13486,34 +13526,34 @@
         <f t="shared" si="8"/>
         <v>-0.3681703749064435</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <f t="shared" si="9"/>
         <v>0.22166666666659651</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
+    <row r="89" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
         <v>120</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>4581</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <f t="shared" si="7"/>
         <v>-2279.8549618320612</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <f t="shared" si="5"/>
         <v>-0.33229895902409068</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <f t="shared" si="8"/>
         <v>-0.37660747091243113</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999999965</v>
       </c>
@@ -13540,7 +13580,7 @@
         <f t="shared" si="8"/>
         <v>-0.26610872967272231</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <f t="shared" si="9"/>
         <v>1.0639999999999912</v>
       </c>
@@ -13567,7 +13607,7 @@
         <f t="shared" si="8"/>
         <v>-8.8793631353337413E-2</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <f t="shared" si="9"/>
         <v>0.79799999999989346</v>
       </c>
@@ -13594,7 +13634,7 @@
         <f t="shared" si="8"/>
         <v>3.1094781247873717E-2</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <f t="shared" si="9"/>
         <v>0.5319999999999947</v>
       </c>
@@ -13621,7 +13661,7 @@
         <f t="shared" si="8"/>
         <v>0.2797169490372185</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <f t="shared" si="9"/>
         <v>0.26599999999999646</v>
       </c>
@@ -13648,7 +13688,7 @@
         <f t="shared" si="8"/>
         <v>0.38749404640402801</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999999912</v>
       </c>
@@ -13675,7 +13715,7 @@
         <f t="shared" si="8"/>
         <v>0.19221609852350821</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <f t="shared" si="9"/>
         <v>1.063999999999993</v>
       </c>
@@ -13702,7 +13742,7 @@
         <f t="shared" si="8"/>
         <v>0.20187793427230047</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <f t="shared" si="9"/>
         <v>0.79799999999999471</v>
       </c>
@@ -13729,7 +13769,7 @@
         <f t="shared" si="8"/>
         <v>-0.15669864598217323</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="2">
         <f t="shared" si="9"/>
         <v>0.53199999999999648</v>
       </c>
@@ -13756,34 +13796,34 @@
         <f t="shared" ref="I98:I132" si="12">(C98-$E$6)/$E$6</f>
         <v>-0.33047560726678915</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="2">
         <f t="shared" si="9"/>
         <v>0.26599999999999113</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="3">
+    <row r="99" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
         <v>130</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>5.3199999999999932</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>4756</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <f t="shared" si="10"/>
         <v>-2104.8549618320612</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="2">
         <f t="shared" si="11"/>
         <v>-0.30679193388312054</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="2">
         <f t="shared" si="12"/>
         <v>-0.35279308702456286</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <f t="shared" si="9"/>
         <v>1.329999999999993</v>
       </c>
@@ -13810,7 +13850,7 @@
         <f t="shared" si="12"/>
         <v>-0.29781588079199839</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="2">
         <f t="shared" si="9"/>
         <v>1.1399999999999952</v>
       </c>
@@ -13837,7 +13877,7 @@
         <f t="shared" si="12"/>
         <v>-0.31278492209294412</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <f t="shared" si="9"/>
         <v>0.94999999999999041</v>
       </c>
@@ -13864,7 +13904,7 @@
         <f t="shared" si="12"/>
         <v>-0.16445533101993604</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <f t="shared" si="9"/>
         <v>0.75999999999999268</v>
       </c>
@@ -13891,7 +13931,7 @@
         <f t="shared" si="12"/>
         <v>6.8721507790705585E-3</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="2">
         <f t="shared" si="9"/>
         <v>0.56999999999999496</v>
       </c>
@@ -13918,7 +13958,7 @@
         <f t="shared" si="12"/>
         <v>0.14921412533170034</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <f t="shared" si="9"/>
         <v>0.37999999999999012</v>
       </c>
@@ -13945,34 +13985,34 @@
         <f t="shared" si="12"/>
         <v>0.25930461999047427</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="2">
         <f t="shared" si="9"/>
         <v>0.1899999999999924</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="3">
+    <row r="106" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
         <v>137</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>3.9899999999999949</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>10082</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <f t="shared" si="10"/>
         <v>3221.1450381679388</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <f t="shared" si="11"/>
         <v>0.46949615697863301</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="2">
         <f t="shared" si="12"/>
         <v>0.3719806763285024</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999999947</v>
       </c>
@@ -13999,7 +14039,7 @@
         <f t="shared" si="12"/>
         <v>0.30693338776621082</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <f t="shared" si="9"/>
         <v>1.1083333333332952</v>
       </c>
@@ -14026,7 +14066,7 @@
         <f t="shared" si="12"/>
         <v>0.17153160508947404</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="2">
         <f t="shared" si="9"/>
         <v>0.88666666666659566</v>
       </c>
@@ -14053,7 +14093,7 @@
         <f t="shared" si="12"/>
         <v>7.3960672246036613E-2</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <f t="shared" si="9"/>
         <v>0.66499999999999559</v>
       </c>
@@ -14080,7 +14120,7 @@
         <f t="shared" si="12"/>
         <v>-0.15016670068721508</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <f t="shared" si="9"/>
         <v>0.44333333333329605</v>
       </c>
@@ -14107,34 +14147,34 @@
         <f t="shared" si="12"/>
         <v>-0.30189834660134723</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="2">
         <f t="shared" si="9"/>
         <v>0.22166666666659651</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="3">
+    <row r="112" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
         <v>143</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>2.6599999999999966</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>4839</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <f t="shared" si="10"/>
         <v>-2021.8549618320612</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="2">
         <f t="shared" si="11"/>
         <v>-0.29469431624483183</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="2">
         <f t="shared" si="12"/>
         <v>-0.34149826495203101</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999999965</v>
       </c>
@@ -14161,7 +14201,7 @@
         <f t="shared" si="12"/>
         <v>-0.33687147036810233</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <f t="shared" si="9"/>
         <v>1.2090909090908948</v>
       </c>
@@ -14188,7 +14228,7 @@
         <f t="shared" si="12"/>
         <v>-0.30843029189630539</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <f t="shared" si="9"/>
         <v>1.0881818181818002</v>
       </c>
@@ -14215,7 +14255,7 @@
         <f t="shared" si="12"/>
         <v>-0.29659114104919371</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <f t="shared" si="9"/>
         <v>0.96727272727269131</v>
       </c>
@@ -14242,7 +14282,7 @@
         <f t="shared" si="12"/>
         <v>-0.1758862352861128</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <f t="shared" si="9"/>
         <v>0.84636363636359668</v>
       </c>
@@ -14269,7 +14309,7 @@
         <f t="shared" si="12"/>
         <v>-9.3692590324556027E-2</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <f t="shared" si="9"/>
         <v>0.72545454545448784</v>
       </c>
@@ -14296,7 +14336,7 @@
         <f t="shared" si="12"/>
         <v>-1.7010274205620194E-3</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="2">
         <f t="shared" si="9"/>
         <v>0.60454545454539321</v>
       </c>
@@ -14323,7 +14363,7 @@
         <f t="shared" si="12"/>
         <v>0.24909845546710213</v>
       </c>
-      <c r="J119" s="3">
+      <c r="J119" s="2">
         <f t="shared" si="9"/>
         <v>0.48363636363629858</v>
       </c>
@@ -14350,7 +14390,7 @@
         <f t="shared" si="12"/>
         <v>0.36490440225896442</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="2">
         <f t="shared" si="9"/>
         <v>0.36272727272718974</v>
       </c>
@@ -14377,7 +14417,7 @@
         <f t="shared" si="12"/>
         <v>0.34367558005035043</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="2">
         <f t="shared" si="9"/>
         <v>0.24181818181809511</v>
       </c>
@@ -14404,34 +14444,34 @@
         <f t="shared" si="12"/>
         <v>0.38980744369599241</v>
       </c>
-      <c r="J122" s="3">
+      <c r="J122" s="2">
         <f t="shared" si="9"/>
         <v>0.12090909090898627</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="3">
+    <row r="123" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
         <v>154</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>1.3299999999999912</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>10242</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="2">
         <f t="shared" si="10"/>
         <v>3381.1450381679388</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="2">
         <f t="shared" si="11"/>
         <v>0.49281686567894856</v>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="2">
         <f t="shared" si="12"/>
         <v>0.39375382731169628</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="2">
         <f t="shared" si="9"/>
         <v>1.3299999999999912</v>
       </c>
@@ -14458,7 +14498,7 @@
         <f t="shared" si="12"/>
         <v>0.38477240253112882</v>
       </c>
-      <c r="J124" s="3">
+      <c r="J124" s="2">
         <f t="shared" si="9"/>
         <v>1.1822222222221868</v>
       </c>
@@ -14485,7 +14525,7 @@
         <f t="shared" si="12"/>
         <v>0.16812955024835</v>
       </c>
-      <c r="J125" s="3">
+      <c r="J125" s="2">
         <f t="shared" si="9"/>
         <v>1.0344444444443965</v>
       </c>
@@ -14512,7 +14552,7 @@
         <f t="shared" si="12"/>
         <v>-4.4226712934612505E-3</v>
       </c>
-      <c r="J126" s="3">
+      <c r="J126" s="2">
         <f t="shared" si="9"/>
         <v>0.88666666666659211</v>
       </c>
@@ -14539,7 +14579,7 @@
         <f t="shared" si="12"/>
         <v>-0.10308226168605839</v>
       </c>
-      <c r="J127" s="3">
+      <c r="J127" s="2">
         <f t="shared" si="9"/>
         <v>0.73888888888878768</v>
       </c>
@@ -14566,7 +14606,7 @@
         <f t="shared" si="12"/>
         <v>-0.16078111179152207</v>
       </c>
-      <c r="J128" s="3">
+      <c r="J128" s="2">
         <f t="shared" si="9"/>
         <v>0.59111111111109693</v>
       </c>
@@ -14593,7 +14633,7 @@
         <f t="shared" si="12"/>
         <v>-0.19452949581547255</v>
       </c>
-      <c r="J129" s="3">
+      <c r="J129" s="2">
         <f t="shared" si="9"/>
         <v>0.4433333333332925</v>
       </c>
@@ -14620,7 +14660,7 @@
         <f t="shared" si="12"/>
         <v>-0.27944478464992856</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="2">
         <f t="shared" si="9"/>
         <v>0.29555555555548807</v>
       </c>
@@ -14647,34 +14687,34 @@
         <f t="shared" si="12"/>
         <v>-0.29836020956657822</v>
       </c>
-      <c r="J131" s="3">
+      <c r="J131" s="2">
         <f t="shared" ref="J131:J132" si="13">MOD(B131,1.33)</f>
         <v>0.14777777777769785</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="3">
+    <row r="132" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
         <v>163</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>0</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="2">
         <v>4719</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2">
         <f t="shared" si="10"/>
         <v>-2141.8549618320612</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="2">
         <f t="shared" si="11"/>
         <v>-0.3121848477700685</v>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="2">
         <f t="shared" si="12"/>
         <v>-0.35782812818942639</v>
       </c>
-      <c r="J132" s="3">
+      <c r="J132" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -14741,36 +14781,36 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>34</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>43.446666666666594</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C66" si="1">$G3/$F$2</f>
         <v>-0.11084307516487697</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>7127</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>MAX(D:D)</f>
         <v>11333</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>-888.45801526717514</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="2">$G3/$F$2</f>
         <v>-0.11084307516487697</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="3">MOD(B3,1.33)</f>
         <v>0.88666666666659211</v>
       </c>
@@ -14809,36 +14849,36 @@
         <v>0.44333333333319302</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>36</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>42.559999999999896</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>6.6564129425489921E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8549</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>F3-F4</f>
         <v>5644</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>533.54198473282486</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>6.6564129425489921E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -14904,29 +14944,29 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>39</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>40.786666666666598</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>-7.0421180448084514E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>7451</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>-564.45801526717514</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
         <v>-7.0421180448084514E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659566</v>
       </c>
@@ -14985,56 +15025,56 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>42</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>39.234999999999893</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>8.1285683674198292E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>8667</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>651.54198473282486</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="2"/>
         <v>8.1285683674198292E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0.66499999999989079</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>38.569999999999894</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>-0.13916335325349391</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>6900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>-1115.4580152671751</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
         <v>-0.13916335325349391</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -15093,29 +15133,29 @@
         <v>0.44333333333319302</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>46</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>37.239999999999888</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>0.1058631937334826</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>8864</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>848.54198473282486</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>0.1058631937334826</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998864</v>
       </c>
@@ -15174,29 +15214,29 @@
         <v>1.3299999999998882</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>49</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>35.577499999999894</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>-0.18806885550344035</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>6508</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>-1507.4580152671751</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>-0.18806885550344035</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>0.99749999999989214</v>
       </c>
@@ -15228,29 +15268,29 @@
         <v>0.66499999999989612</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>51</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>34.912499999999895</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>0.23636103902288047</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>9910</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>1894.5419847328249</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
         <v>0.23636103902288047</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>0.33249999999989299</v>
       </c>
@@ -15309,29 +15349,29 @@
         <v>0.66499999999989079</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>54</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>33.249999999999893</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>-0.22923930382609933</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>6178</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>-1837.4580152671751</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>-0.22923930382609933</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -15390,29 +15430,29 @@
         <v>0.4433333333332925</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>57</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>31.919999999999895</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>0.19494107283159931</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>9578</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>1562.5419847328249</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>0.19494107283159931</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -15471,56 +15511,56 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
         <v>60</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>30.14666666666659</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>-0.18781933763481817</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>6510</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>-1505.4580152671751</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
         <v>-0.18781933763481817</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666658855</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+    <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>61</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>29.703333333333291</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f t="shared" si="1"/>
         <v>-7.4787743148972588E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>7416</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>-599.45801526717514</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f t="shared" si="2"/>
         <v>-7.4787743148972588E-2</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f t="shared" si="3"/>
         <v>0.44333333333328895</v>
       </c>
@@ -15552,29 +15592,29 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
         <v>63</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>28.816666666666592</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>0.20891407347444116</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>9690</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>1674.5419847328249</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <f t="shared" si="2"/>
         <v>0.20891407347444116</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659033</v>
       </c>
@@ -15633,29 +15673,29 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
         <v>66</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>27.59749999999989</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="1"/>
         <v>-0.17035308683126588</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>6650</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="4"/>
         <v>-1365.4580152671751</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <f t="shared" si="2"/>
         <v>-0.17035308683126588</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>0.99749999999988859</v>
       </c>
@@ -15714,29 +15754,29 @@
         <v>0.33249999999988944</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
         <v>69</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>26.599999999999895</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="1"/>
         <v>0.17897192923978006</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>9450</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f t="shared" si="4"/>
         <v>1434.5419847328249</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <f t="shared" si="2"/>
         <v>0.17897192923978006</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998935</v>
       </c>
@@ -15768,29 +15808,29 @@
         <v>0.66499999999989434</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
         <v>71</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>25.269999999999897</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f t="shared" si="1"/>
         <v>-0.23984381324254181</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>6093</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <f t="shared" si="4"/>
         <v>-1922.4580152671751</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <f t="shared" si="2"/>
         <v>-0.23984381324254181</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -15876,29 +15916,29 @@
         <v>0.33249999999989299</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
         <v>75</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>23.939999999999891</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>0.27079450489274071</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>10186</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f t="shared" si="4"/>
         <v>2170.5419847328249</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <f t="shared" si="2"/>
         <v>0.27079450489274071</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -15957,29 +15997,29 @@
         <v>0.44333333333329072</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
         <v>78</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>22.609999999999893</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <f t="shared" si="1"/>
         <v>-0.21776148186947925</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>6270</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <f t="shared" si="4"/>
         <v>-1745.4580152671751</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <f t="shared" si="2"/>
         <v>-0.21776148186947925</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -16065,29 +16105,29 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
         <v>82</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>20.836666666666595</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <f t="shared" si="1"/>
         <v>0.26730125473203026</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>10158</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <f t="shared" si="4"/>
         <v>2142.5419847328249</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <f t="shared" si="2"/>
         <v>0.26730125473203026</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <f t="shared" si="3"/>
         <v>0.88666666666659388</v>
       </c>
@@ -16146,29 +16186,29 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
         <v>85</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>19.683999999999891</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>-0.20690745458441462</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>6357</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <f t="shared" si="4"/>
         <v>-1658.4580152671751</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <f t="shared" si="2"/>
         <v>-0.20690745458441462</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <f t="shared" si="3"/>
         <v>1.0639999999998899</v>
       </c>
@@ -16254,29 +16294,29 @@
         <v>0.26599999999989521</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
         <v>89</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>18.619999999999891</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <f t="shared" si="1"/>
         <v>0.25669674531558778</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>10073</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <f t="shared" si="4"/>
         <v>2057.5419847328249</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <f t="shared" si="2"/>
         <v>0.25669674531558778</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998899</v>
       </c>
@@ -16335,29 +16375,29 @@
         <v>0.44333333333329072</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
         <v>92</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>17.289999999999893</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <f t="shared" si="1"/>
         <v>-0.23847146496511984</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>6104</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <f t="shared" si="4"/>
         <v>-1911.4580152671751</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="2">
         <f t="shared" si="2"/>
         <v>-0.23847146496511984</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998917</v>
       </c>
@@ -16470,29 +16510,29 @@
         <v>0.33249999999989122</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
         <v>97</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>14.629999999999896</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <f t="shared" si="1"/>
         <v>0.30946977452917795</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>10496</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <f t="shared" ref="G66:G97" si="5">D66-$F$2</f>
         <v>2480.5419847328249</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="2">
         <f t="shared" si="2"/>
         <v>0.30946977452917795</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -16578,29 +16618,29 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
         <v>101</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>13.033999999999892</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <f t="shared" si="6"/>
         <v>-0.25182067093640625</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>5997</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <f t="shared" si="5"/>
         <v>-2018.4580152671751</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <f t="shared" si="7"/>
         <v>-0.25182067093640625</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <f t="shared" si="8"/>
         <v>1.0639999999998917</v>
       </c>
@@ -16713,29 +16753,29 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+    <row r="75" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
         <v>106</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>11.703999999999894</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <f t="shared" si="6"/>
         <v>0.35363443727530303</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>10850</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <f t="shared" si="5"/>
         <v>2834.5419847328249</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="2">
         <f t="shared" si="7"/>
         <v>0.35363443727530303</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <f t="shared" si="8"/>
         <v>1.0639999999998935</v>
       </c>
@@ -16794,29 +16834,29 @@
         <v>0.53199999999988989</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+    <row r="78" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
         <v>109</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>10.905999999999892</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <f t="shared" si="6"/>
         <v>-0.21514154424894641</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>6291</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <f t="shared" si="5"/>
         <v>-1724.4580152671751</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="2">
         <f t="shared" si="7"/>
         <v>-0.21514154424894641</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <f t="shared" si="8"/>
         <v>0.26599999999989166</v>
       </c>
@@ -16956,29 +16996,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+    <row r="84" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
         <v>115</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>9.0883333333332956</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <f t="shared" si="6"/>
         <v>0.35226208899788108</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>10839</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <f t="shared" si="5"/>
         <v>2823.5419847328249</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="2">
         <f t="shared" si="7"/>
         <v>0.35226208899788108</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <f t="shared" si="8"/>
         <v>1.1083333333332952</v>
       </c>
@@ -17091,29 +17131,29 @@
         <v>0.22166666666659651</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+    <row r="89" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
         <v>120</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <f t="shared" si="6"/>
         <v>-0.27065927001738049</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>5846</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <f t="shared" si="5"/>
         <v>-2169.4580152671751</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <f t="shared" si="7"/>
         <v>-0.27065927001738049</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <f t="shared" si="8"/>
         <v>1.3299999999999965</v>
       </c>
@@ -17226,29 +17266,29 @@
         <v>0.26599999999999646</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
+    <row r="94" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
         <v>125</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>6.6499999999999915</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <f t="shared" si="6"/>
         <v>0.3460241422823267</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>10789</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="2">
         <f t="shared" si="5"/>
         <v>2773.5419847328249</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="2">
         <f t="shared" si="7"/>
         <v>0.3460241422823267</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <f t="shared" si="8"/>
         <v>1.3299999999999912</v>
       </c>
@@ -17361,29 +17401,29 @@
         <v>0.26599999999999113</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+    <row r="99" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
         <v>130</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>5.3199999999999932</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <f t="shared" si="6"/>
         <v>-0.2902464227042213</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>5689</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="2">
         <f t="shared" si="9"/>
         <v>-2326.4580152671751</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="2">
         <f t="shared" si="7"/>
         <v>-0.2902464227042213</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <f t="shared" si="8"/>
         <v>1.329999999999993</v>
       </c>
@@ -17577,29 +17617,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+    <row r="107" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
         <v>138</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>3.7683333333332953</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <f t="shared" si="6"/>
         <v>0.39505440346658421</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>11182</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="2">
         <f t="shared" si="9"/>
         <v>3166.5419847328249</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="2">
         <f t="shared" si="7"/>
         <v>0.39505440346658421</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <f t="shared" si="8"/>
         <v>1.1083333333332952</v>
       </c>
@@ -17766,29 +17806,29 @@
         <v>1.2090909090908948</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4">
+    <row r="114" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
         <v>145</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>2.4181818181818002</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <f t="shared" si="6"/>
         <v>-0.28325992238280034</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>5745</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="2">
         <f t="shared" si="9"/>
         <v>-2270.4580152671751</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="2">
         <f t="shared" si="7"/>
         <v>-0.28325992238280034</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <f t="shared" si="8"/>
         <v>1.0881818181818002</v>
       </c>
@@ -17955,29 +17995,29 @@
         <v>0.36272727272718974</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4">
+    <row r="121" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
         <v>152</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>1.5718181818180952</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <f t="shared" si="6"/>
         <v>0.41389300254755845</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>11333</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="2">
         <f t="shared" si="9"/>
         <v>3317.5419847328249</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="2">
         <f t="shared" si="7"/>
         <v>0.41389300254755845</v>
       </c>
-      <c r="J121" s="3">
+      <c r="J121" s="2">
         <f t="shared" si="8"/>
         <v>0.24181818181809511</v>
       </c>
@@ -18198,56 +18238,56 @@
         <v>0.4433333333332925</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4">
+    <row r="130" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="3">
         <v>161</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>0.29555555555548807</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="2">
         <f t="shared" si="6"/>
         <v>-0.27490107378395751</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>5812</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="2">
         <f t="shared" si="9"/>
         <v>-2203.4580152671751</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="2">
         <f t="shared" si="7"/>
         <v>-0.27490107378395751</v>
       </c>
-      <c r="J130" s="3">
+      <c r="J130" s="2">
         <f t="shared" si="8"/>
         <v>0.29555555555548807</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="5">
+    <row r="131" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="4">
         <v>162</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="5">
         <v>0.14777777777769785</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="5">
         <f t="shared" ref="C131:C132" si="10">$G131/$F$2</f>
         <v>-0.27103354682031378</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>5843</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G131" s="5">
         <f t="shared" si="9"/>
         <v>-2172.4580152671751</v>
       </c>
-      <c r="I131" s="6">
+      <c r="I131" s="5">
         <f t="shared" ref="I131:I132" si="11">$G131/$F$2</f>
         <v>-0.27103354682031378</v>
       </c>
-      <c r="J131" s="6">
+      <c r="J131" s="5">
         <f t="shared" ref="J131:J132" si="12">MOD(B131,1.33)</f>
         <v>0.14777777777769785</v>
       </c>
@@ -18457,781 +18497,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>163</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>-0.3121848477700685</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <f>ABS(C4-C3)</f>
         <v>0.80500171344901705</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>161</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0.29555555555548807</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>-0.27490107378395751</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <f>ABS(G4-G3)</f>
         <v>0.6887940763315159</v>
       </c>
       <c r="I3">
-        <f>D3/H3</f>
+        <f t="shared" ref="I3:I34" si="0">D3/H3</f>
         <v>1.1687117254788506</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>154</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>1.3299999999999912</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0.49281686567894856</v>
       </c>
-      <c r="D4" s="16">
-        <f t="shared" ref="D4:D35" si="0">ABS(C5-C4)</f>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D34" si="1">ABS(C5-C4)</f>
         <v>0.78751118192378033</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>152</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1.5718181818180952</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>0.41389300254755845</v>
       </c>
-      <c r="H4" s="13">
-        <f t="shared" ref="H4:H34" si="1">ABS(G5-G4)</f>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H34" si="2">ABS(G5-G4)</f>
         <v>0.69715292493035874</v>
       </c>
       <c r="I4">
-        <f>D4/H4</f>
+        <f t="shared" si="0"/>
         <v>1.1296103821158721</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>143</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2.6599999999999966</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>-0.29469431624483183</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.76419047322346478</v>
+      </c>
+      <c r="E5" s="14">
+        <v>145</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2.4181818181818002</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-0.28325992238280034</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
+        <v>0.67831432584938456</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.76419047322346478</v>
-      </c>
-      <c r="E5" s="17">
-        <v>145</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2.4181818181818002</v>
-      </c>
-      <c r="G5" s="12">
-        <v>-0.28325992238280034</v>
-      </c>
-      <c r="H5" s="13">
+        <v>1.1266022905627804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>137</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.9899999999999949</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.46949615697863301</v>
+      </c>
+      <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>0.67831432584938456</v>
-      </c>
-      <c r="I5">
-        <f>D5/H5</f>
-        <v>1.1266022905627804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>137</v>
-      </c>
-      <c r="B6" s="12">
-        <v>3.9899999999999949</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.46949615697863301</v>
-      </c>
-      <c r="D6" s="16">
+        <v>0.77628809086175354</v>
+      </c>
+      <c r="E6" s="14">
+        <v>138</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3.7683333333332953</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.39505440346658421</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="2"/>
+        <v>0.68530082617080557</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.77628809086175354</v>
-      </c>
-      <c r="E6" s="17">
-        <v>138</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3.7683333333332953</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.39505440346658421</v>
-      </c>
-      <c r="H6" s="13">
+        <v>1.1327698161395039</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K22" si="3">D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>130</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5.3199999999999932</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-0.30679193388312054</v>
+      </c>
+      <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0.68530082617080557</v>
-      </c>
-      <c r="I6">
-        <f>D6/H6</f>
-        <v>1.1327698161395039</v>
-      </c>
-      <c r="K6">
-        <f>D37</f>
+        <v>0.7929040958107284</v>
+      </c>
+      <c r="E7" s="14">
+        <v>130</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5.3199999999999932</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-0.2902464227042213</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.63627056498654799</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.2461744098243677</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>130</v>
-      </c>
-      <c r="B7" s="12">
-        <v>5.3199999999999932</v>
-      </c>
-      <c r="C7" s="12">
-        <v>-0.30679193388312054</v>
-      </c>
-      <c r="D7" s="16">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>125</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.48611216192760787</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.81841112095169855</v>
+      </c>
+      <c r="E8" s="14">
+        <v>125</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.3460241422823267</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="2"/>
+        <v>0.61668341229970713</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.7929040958107284</v>
-      </c>
-      <c r="E7" s="17">
-        <v>130</v>
-      </c>
-      <c r="F7" s="12">
-        <v>5.3199999999999932</v>
-      </c>
-      <c r="G7" s="12">
-        <v>-0.2902464227042213</v>
-      </c>
-      <c r="H7" s="13">
+        <v>1.3271171311381926</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>120</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7.9799999999999969</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.33229895902409068</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0.63627056498654799</v>
-      </c>
-      <c r="I7">
-        <f>D7/H7</f>
-        <v>1.2461744098243677</v>
-      </c>
-      <c r="K7">
-        <f>D38</f>
+        <v>0.7102613343539852</v>
+      </c>
+      <c r="E9" s="14">
+        <v>120</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7.9799999999999969</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-0.27065927001738049</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.62292135901526158</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.1402102754620489</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>125</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6.6499999999999915</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.48611216192760787</v>
-      </c>
-      <c r="D8" s="16">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>114</v>
+      </c>
+      <c r="B10" s="10">
+        <v>9.3099999999999952</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.37796237532989452</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.70166182302074387</v>
+      </c>
+      <c r="E10" s="14">
+        <v>115</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.0883333333332956</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.35226208899788108</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.56740363324682752</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.81841112095169855</v>
-      </c>
-      <c r="E8" s="17">
-        <v>125</v>
-      </c>
-      <c r="F8" s="12">
-        <v>6.6499999999999915</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.3460241422823267</v>
-      </c>
-      <c r="H8" s="13">
+        <v>1.2366184879812223</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>110</v>
+      </c>
+      <c r="B11" s="10">
+        <v>10.639999999999894</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-0.3236994476908493</v>
+      </c>
+      <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>0.61668341229970713</v>
-      </c>
-      <c r="I8">
-        <f>D8/H8</f>
-        <v>1.3271171311381926</v>
-      </c>
-      <c r="K8">
-        <f>D39</f>
+        <v>0.7147797216646713</v>
+      </c>
+      <c r="E11" s="14">
+        <v>109</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10.905999999999892</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-0.21514154424894641</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.56877598152424946</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.2566981463407612</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>120</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7.9799999999999969</v>
-      </c>
-      <c r="C9" s="12">
-        <v>-0.33229895902409068</v>
-      </c>
-      <c r="D9" s="16">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>105</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11.969999999999892</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.391080273973822</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.72760611144984488</v>
+      </c>
+      <c r="E12" s="14">
+        <v>106</v>
+      </c>
+      <c r="F12" s="10">
+        <v>11.703999999999894</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.35363443727530303</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.60545510821170923</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.7102613343539852</v>
-      </c>
-      <c r="E9" s="17">
-        <v>120</v>
-      </c>
-      <c r="F9" s="12">
-        <v>7.9799999999999969</v>
-      </c>
-      <c r="G9" s="12">
-        <v>-0.27065927001738049</v>
-      </c>
-      <c r="H9" s="13">
+        <v>1.2017507187261574</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>100</v>
+      </c>
+      <c r="B13" s="10">
+        <v>13.299999999999891</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-0.33652583747602288</v>
+      </c>
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>0.62292135901526158</v>
-      </c>
-      <c r="I9">
-        <f>D9/H9</f>
-        <v>1.1402102754620489</v>
-      </c>
-      <c r="K9">
-        <f>D40</f>
+        <v>0.74713720498635916</v>
+      </c>
+      <c r="E13" s="14">
+        <v>101</v>
+      </c>
+      <c r="F13" s="10">
+        <v>13.033999999999892</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-0.25182067093640625</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.56129044546558426</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.3311062232078743</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>114</v>
-      </c>
-      <c r="B10" s="12">
-        <v>9.3099999999999952</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.37796237532989452</v>
-      </c>
-      <c r="D10" s="16">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>97</v>
+      </c>
+      <c r="B14" s="10">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.41061136751033628</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.73372779748367778</v>
+      </c>
+      <c r="E14" s="14">
+        <v>97</v>
+      </c>
+      <c r="F14" s="10">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.30946977452917795</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.54794123949429774</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.70166182302074387</v>
-      </c>
-      <c r="E10" s="17">
-        <v>115</v>
-      </c>
-      <c r="F10" s="12">
-        <v>9.0883333333332956</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.35226208899788108</v>
-      </c>
-      <c r="H10" s="13">
+        <v>1.3390629224419117</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>93</v>
+      </c>
+      <c r="B15" s="10">
+        <v>15.959999999999894</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-0.32311642997334145</v>
+      </c>
+      <c r="D15" s="13">
         <f t="shared" si="1"/>
-        <v>0.56740363324682752</v>
-      </c>
-      <c r="I10">
-        <f>D10/H10</f>
-        <v>1.2366184879812223</v>
-      </c>
-      <c r="K10">
-        <f>D41</f>
+        <v>0.66624349668213956</v>
+      </c>
+      <c r="E15" s="14">
+        <v>92</v>
+      </c>
+      <c r="F15" s="10">
+        <v>17.289999999999893</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-0.23847146496511984</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.49516821028070762</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.3454892354750529</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <v>110</v>
-      </c>
-      <c r="B11" s="12">
-        <v>10.639999999999894</v>
-      </c>
-      <c r="C11" s="12">
-        <v>-0.3236994476908493</v>
-      </c>
-      <c r="D11" s="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>89</v>
+      </c>
+      <c r="B16" s="10">
+        <v>18.619999999999891</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.34312706670879817</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.69379108383438726</v>
+      </c>
+      <c r="E16" s="14">
+        <v>89</v>
+      </c>
+      <c r="F16" s="10">
+        <v>18.619999999999891</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.25669674531558778</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.4636041999000024</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.7147797216646713</v>
-      </c>
-      <c r="E11" s="17">
-        <v>109</v>
-      </c>
-      <c r="F11" s="12">
-        <v>10.905999999999892</v>
-      </c>
-      <c r="G11" s="12">
-        <v>-0.21514154424894641</v>
-      </c>
-      <c r="H11" s="13">
+        <v>1.4965159590530785</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>84</v>
+      </c>
+      <c r="B17" s="10">
+        <v>19.949999999999896</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-0.35066401712558914</v>
+      </c>
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
-        <v>0.56877598152424946</v>
-      </c>
-      <c r="I11">
-        <f>D11/H11</f>
-        <v>1.2566981463407612</v>
-      </c>
-      <c r="K11">
-        <f>D42</f>
+        <v>0.71128161535962398</v>
+      </c>
+      <c r="E17" s="14">
+        <v>85</v>
+      </c>
+      <c r="F17" s="10">
+        <v>19.683999999999891</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-0.20690745458441462</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="2"/>
+        <v>0.47420870931644488</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.499933681911729</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>105</v>
-      </c>
-      <c r="B12" s="12">
-        <v>11.969999999999892</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.391080273973822</v>
-      </c>
-      <c r="D12" s="16">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>81</v>
+      </c>
+      <c r="B18" s="10">
+        <v>21.279999999999895</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.36061759823403483</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.66857556755217118</v>
+      </c>
+      <c r="E18" s="14">
+        <v>82</v>
+      </c>
+      <c r="F18" s="10">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.26730125473203026</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.4850627366015095</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.72760611144984488</v>
-      </c>
-      <c r="E12" s="17">
-        <v>106</v>
-      </c>
-      <c r="F12" s="12">
-        <v>11.703999999999894</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.35363443727530303</v>
-      </c>
-      <c r="H12" s="13">
+        <v>1.3783280328569576</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>78</v>
+      </c>
+      <c r="B19" s="10">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-0.30795796931813629</v>
+      </c>
+      <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>0.60545510821170923</v>
-      </c>
-      <c r="I12">
-        <f>D12/H12</f>
-        <v>1.2017507187261574</v>
-      </c>
-      <c r="K12">
-        <f>D43</f>
+        <v>0.61435491982393753</v>
+      </c>
+      <c r="E19" s="14">
+        <v>78</v>
+      </c>
+      <c r="F19" s="10">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-0.21776148186947925</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.48855598676221995</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.257491334607151</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
-        <v>100</v>
-      </c>
-      <c r="B13" s="12">
-        <v>13.299999999999891</v>
-      </c>
-      <c r="C13" s="12">
-        <v>-0.33652583747602288</v>
-      </c>
-      <c r="D13" s="16">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>75</v>
+      </c>
+      <c r="B20" s="10">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.30639695050580124</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.58010262892034903</v>
+      </c>
+      <c r="E20" s="14">
+        <v>75</v>
+      </c>
+      <c r="F20" s="10">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.27079450489274071</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.51063831813528249</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.74713720498635916</v>
-      </c>
-      <c r="E13" s="17">
-        <v>101</v>
-      </c>
-      <c r="F13" s="12">
-        <v>13.033999999999892</v>
-      </c>
-      <c r="G13" s="12">
-        <v>-0.25182067093640625</v>
-      </c>
-      <c r="H13" s="13">
+        <v>1.1360342698893653</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>71</v>
+      </c>
+      <c r="B21" s="10">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-0.27370567841454785</v>
+      </c>
+      <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>0.56129044546558426</v>
-      </c>
-      <c r="I13">
-        <f>D13/H13</f>
-        <v>1.3311062232078743</v>
-      </c>
-      <c r="K13">
-        <f>D44</f>
+        <v>0.54526732029925273</v>
+      </c>
+      <c r="E21" s="14">
+        <v>71</v>
+      </c>
+      <c r="F21" s="10">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-0.23984381324254181</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.4188157424823219</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.3019265156258264</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
-        <v>97</v>
-      </c>
-      <c r="B14" s="12">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.41061136751033628</v>
-      </c>
-      <c r="D14" s="16">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>69</v>
+      </c>
+      <c r="B22" s="10">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.27156164188470489</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.5518262696212165</v>
+      </c>
+      <c r="E22" s="14">
+        <v>69</v>
+      </c>
+      <c r="F22" s="10">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.17897192923978006</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="2"/>
+        <v>0.34932501607104594</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.73372779748367778</v>
-      </c>
-      <c r="E14" s="17">
-        <v>97</v>
-      </c>
-      <c r="F14" s="12">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.30946977452917795</v>
-      </c>
-      <c r="H14" s="13">
+        <v>1.5796929628108447</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>65</v>
+      </c>
+      <c r="B23" s="10">
+        <v>27.929999999999893</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-0.28026462773651162</v>
+      </c>
+      <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>0.54794123949429774</v>
-      </c>
-      <c r="I14">
-        <f>D14/H14</f>
-        <v>1.3390629224419117</v>
-      </c>
-      <c r="K14">
-        <f>D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
-        <v>93</v>
-      </c>
-      <c r="B15" s="12">
-        <v>15.959999999999894</v>
-      </c>
-      <c r="C15" s="12">
-        <v>-0.32311642997334145</v>
-      </c>
-      <c r="D15" s="16">
+        <v>0.46889199930571934</v>
+      </c>
+      <c r="E23" s="14">
+        <v>66</v>
+      </c>
+      <c r="F23" s="10">
+        <v>27.59749999999989</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-0.17035308683126588</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="2"/>
+        <v>0.37926716030570706</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.66624349668213956</v>
-      </c>
-      <c r="E15" s="17">
-        <v>92</v>
-      </c>
-      <c r="F15" s="12">
-        <v>17.289999999999893</v>
-      </c>
-      <c r="G15" s="12">
-        <v>-0.23847146496511984</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="1"/>
-        <v>0.49516821028070762</v>
-      </c>
-      <c r="I15">
-        <f>D15/H15</f>
-        <v>1.3454892354750529</v>
-      </c>
-      <c r="K15">
-        <f>D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
-        <v>89</v>
-      </c>
-      <c r="B16" s="12">
-        <v>18.619999999999891</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.34312706670879817</v>
-      </c>
-      <c r="D16" s="16">
-        <f t="shared" si="0"/>
-        <v>0.69379108383438726</v>
-      </c>
-      <c r="E16" s="17">
-        <v>89</v>
-      </c>
-      <c r="F16" s="12">
-        <v>18.619999999999891</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.25669674531558778</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4636041999000024</v>
-      </c>
-      <c r="I16">
-        <f>D16/H16</f>
-        <v>1.4965159590530785</v>
-      </c>
-      <c r="K16">
-        <f>D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
-        <v>84</v>
-      </c>
-      <c r="B17" s="12">
-        <v>19.949999999999896</v>
-      </c>
-      <c r="C17" s="12">
-        <v>-0.35066401712558914</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.71128161535962398</v>
-      </c>
-      <c r="E17" s="17">
-        <v>85</v>
-      </c>
-      <c r="F17" s="12">
-        <v>19.683999999999891</v>
-      </c>
-      <c r="G17" s="12">
-        <v>-0.20690745458441462</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="1"/>
-        <v>0.47420870931644488</v>
-      </c>
-      <c r="I17">
-        <f>D17/H17</f>
-        <v>1.499933681911729</v>
-      </c>
-      <c r="K17">
-        <f>D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
-        <v>81</v>
-      </c>
-      <c r="B18" s="12">
-        <v>21.279999999999895</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.36061759823403483</v>
-      </c>
-      <c r="D18" s="16">
-        <f t="shared" si="0"/>
-        <v>0.66857556755217118</v>
-      </c>
-      <c r="E18" s="17">
-        <v>82</v>
-      </c>
-      <c r="F18" s="12">
-        <v>20.836666666666595</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.26730125473203026</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4850627366015095</v>
-      </c>
-      <c r="I18">
-        <f>D18/H18</f>
-        <v>1.3783280328569576</v>
-      </c>
-      <c r="K18">
-        <f>D49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
-        <v>78</v>
-      </c>
-      <c r="B19" s="12">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="C19" s="12">
-        <v>-0.30795796931813629</v>
-      </c>
-      <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>0.61435491982393753</v>
-      </c>
-      <c r="E19" s="17">
-        <v>78</v>
-      </c>
-      <c r="F19" s="12">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="G19" s="12">
-        <v>-0.21776148186947925</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="1"/>
-        <v>0.48855598676221995</v>
-      </c>
-      <c r="I19">
-        <f>D19/H19</f>
-        <v>1.257491334607151</v>
-      </c>
-      <c r="K19">
-        <f>D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
-        <v>75</v>
-      </c>
-      <c r="B20" s="12">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0.30639695050580124</v>
-      </c>
-      <c r="D20" s="16">
-        <f t="shared" si="0"/>
-        <v>0.58010262892034903</v>
-      </c>
-      <c r="E20" s="17">
-        <v>75</v>
-      </c>
-      <c r="F20" s="12">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.27079450489274071</v>
-      </c>
-      <c r="H20" s="13">
-        <f t="shared" si="1"/>
-        <v>0.51063831813528249</v>
-      </c>
-      <c r="I20">
-        <f>D20/H20</f>
-        <v>1.1360342698893653</v>
-      </c>
-      <c r="K20">
-        <f>D51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
-        <v>71</v>
-      </c>
-      <c r="B21" s="12">
-        <v>25.269999999999897</v>
-      </c>
-      <c r="C21" s="12">
-        <v>-0.27370567841454785</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" si="0"/>
-        <v>0.54526732029925273</v>
-      </c>
-      <c r="E21" s="17">
-        <v>71</v>
-      </c>
-      <c r="F21" s="12">
-        <v>25.269999999999897</v>
-      </c>
-      <c r="G21" s="12">
-        <v>-0.23984381324254181</v>
-      </c>
-      <c r="H21" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4188157424823219</v>
-      </c>
-      <c r="I21">
-        <f>D21/H21</f>
-        <v>1.3019265156258264</v>
-      </c>
-      <c r="K21">
-        <f>D52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
-        <v>69</v>
-      </c>
-      <c r="B22" s="12">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0.27156164188470489</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5518262696212165</v>
-      </c>
-      <c r="E22" s="17">
-        <v>69</v>
-      </c>
-      <c r="F22" s="12">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0.17897192923978006</v>
-      </c>
-      <c r="H22" s="13">
-        <f t="shared" si="1"/>
-        <v>0.34932501607104594</v>
-      </c>
-      <c r="I22">
-        <f>D22/H22</f>
-        <v>1.5796929628108447</v>
-      </c>
-      <c r="K22">
-        <f>D53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
-        <v>65</v>
-      </c>
-      <c r="B23" s="12">
-        <v>27.929999999999893</v>
-      </c>
-      <c r="C23" s="12">
-        <v>-0.28026462773651162</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>0.46889199930571934</v>
-      </c>
-      <c r="E23" s="17">
-        <v>66</v>
-      </c>
-      <c r="F23" s="12">
-        <v>27.59749999999989</v>
-      </c>
-      <c r="G23" s="12">
-        <v>-0.17035308683126588</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" si="1"/>
-        <v>0.37926716030570706</v>
-      </c>
-      <c r="I23">
-        <f>D23/H23</f>
         <v>1.2363105704373942</v>
       </c>
       <c r="K23">
@@ -19240,34 +19280,34 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>62</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>29.259999999999891</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>0.18862737156920772</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.50693390537310901</v>
+      </c>
+      <c r="E24" s="14">
+        <v>63</v>
+      </c>
+      <c r="F24" s="10">
+        <v>28.816666666666592</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.20891407347444116</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="2"/>
+        <v>0.3967334111092593</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.50693390537310901</v>
-      </c>
-      <c r="E24" s="17">
-        <v>63</v>
-      </c>
-      <c r="F24" s="12">
-        <v>28.816666666666592</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0.20891407347444116</v>
-      </c>
-      <c r="H24" s="13">
-        <f t="shared" si="1"/>
-        <v>0.3967334111092593</v>
-      </c>
-      <c r="I24">
-        <f>D24/H24</f>
         <v>1.2777696336583579</v>
       </c>
       <c r="K24" t="str">
@@ -19276,34 +19316,34 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>59</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>30.589999999999897</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>-0.31830653380390134</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4933787434410507</v>
+      </c>
+      <c r="E25" s="14">
+        <v>60</v>
+      </c>
+      <c r="F25" s="10">
+        <v>30.14666666666659</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-0.18781933763481817</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="2"/>
+        <v>0.38276041046641751</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.4933787434410507</v>
-      </c>
-      <c r="E25" s="17">
-        <v>60</v>
-      </c>
-      <c r="F25" s="12">
-        <v>30.14666666666659</v>
-      </c>
-      <c r="G25" s="12">
-        <v>-0.18781933763481817</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" si="1"/>
-        <v>0.38276041046641751</v>
-      </c>
-      <c r="I25">
-        <f>D25/H25</f>
         <v>1.2890015005466156</v>
       </c>
       <c r="K25">
@@ -19312,34 +19352,34 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>57</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>31.919999999999895</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>0.17507220963714934</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.32634416737504063</v>
+      </c>
+      <c r="E26" s="14">
+        <v>57</v>
+      </c>
+      <c r="F26" s="10">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.19494107283159931</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="2"/>
+        <v>0.42418037665769864</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.32634416737504063</v>
-      </c>
-      <c r="E26" s="17">
-        <v>57</v>
-      </c>
-      <c r="F26" s="12">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.19494107283159931</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="1"/>
-        <v>0.42418037665769864</v>
-      </c>
-      <c r="I26">
-        <f>D26/H26</f>
         <v>0.76935234474175351</v>
       </c>
       <c r="K26">
@@ -19348,34 +19388,34 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>54</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>33.249999999999893</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>-0.15127195773789129</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.38610348341959921</v>
+      </c>
+      <c r="E27" s="14">
+        <v>54</v>
+      </c>
+      <c r="F27" s="10">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-0.22923930382609933</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="2"/>
+        <v>0.46560034284897978</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.38610348341959921</v>
-      </c>
-      <c r="E27" s="17">
-        <v>54</v>
-      </c>
-      <c r="F27" s="12">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="G27" s="12">
-        <v>-0.22923930382609933</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="1"/>
-        <v>0.46560034284897978</v>
-      </c>
-      <c r="I27">
-        <f>D27/H27</f>
         <v>0.82925944825782516</v>
       </c>
       <c r="K27">
@@ -19384,34 +19424,34 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>52</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>34.579999999999892</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>0.2348315256817079</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.42108454647007248</v>
+      </c>
+      <c r="E28" s="14">
+        <v>51</v>
+      </c>
+      <c r="F28" s="10">
+        <v>34.912499999999895</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.23636103902288047</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="2"/>
+        <v>0.42442989452632085</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.42108454647007248</v>
-      </c>
-      <c r="E28" s="17">
-        <v>51</v>
-      </c>
-      <c r="F28" s="12">
-        <v>34.912499999999895</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0.23636103902288047</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="1"/>
-        <v>0.42442989452632085</v>
-      </c>
-      <c r="I28">
-        <f>D28/H28</f>
         <v>0.99211801972624503</v>
       </c>
       <c r="K28">
@@ -19420,34 +19460,34 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>48</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>35.90999999999989</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>-0.18625302078836459</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.35330873680978048</v>
+      </c>
+      <c r="E29" s="14">
+        <v>49</v>
+      </c>
+      <c r="F29" s="10">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-0.18806885550344035</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="2"/>
+        <v>0.29393204923692295</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.35330873680978048</v>
-      </c>
-      <c r="E29" s="17">
-        <v>49</v>
-      </c>
-      <c r="F29" s="12">
-        <v>35.577499999999894</v>
-      </c>
-      <c r="G29" s="12">
-        <v>-0.18806885550344035</v>
-      </c>
-      <c r="H29" s="13">
-        <f t="shared" si="1"/>
-        <v>0.29393204923692295</v>
-      </c>
-      <c r="I29">
-        <f>D29/H29</f>
         <v>1.2020082115135295</v>
       </c>
       <c r="K29">
@@ -19456,34 +19496,34 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="12">
+      <c r="A30" s="10">
         <v>46</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>37.239999999999888</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>0.16705571602141586</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31876493704743802</v>
+      </c>
+      <c r="E30" s="14">
+        <v>46</v>
+      </c>
+      <c r="F30" s="10">
+        <v>37.239999999999888</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.1058631937334826</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="2"/>
+        <v>0.24502654698697651</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.31876493704743802</v>
-      </c>
-      <c r="E30" s="17">
-        <v>46</v>
-      </c>
-      <c r="F30" s="12">
-        <v>37.239999999999888</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0.1058631937334826</v>
-      </c>
-      <c r="H30" s="13">
-        <f t="shared" si="1"/>
-        <v>0.24502654698697651</v>
-      </c>
-      <c r="I30">
-        <f>D30/H30</f>
         <v>1.3009404122418653</v>
       </c>
       <c r="K30">
@@ -19492,34 +19532,34 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>43</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>38.569999999999894</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>-0.15170922102602219</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.26629334247172809</v>
+      </c>
+      <c r="E31" s="14">
+        <v>43</v>
+      </c>
+      <c r="F31" s="10">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="G31" s="10">
+        <v>-0.13916335325349391</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="2"/>
+        <v>0.22044903692769219</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.26629334247172809</v>
-      </c>
-      <c r="E31" s="17">
-        <v>43</v>
-      </c>
-      <c r="F31" s="12">
-        <v>38.569999999999894</v>
-      </c>
-      <c r="G31" s="12">
-        <v>-0.13916335325349391</v>
-      </c>
-      <c r="H31" s="13">
-        <f t="shared" si="1"/>
-        <v>0.22044903692769219</v>
-      </c>
-      <c r="I31">
-        <f>D31/H31</f>
         <v>1.2079587472140916</v>
       </c>
       <c r="K31">
@@ -19528,34 +19568,34 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>41</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>39.899999999999892</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>0.11458412144570589</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23102077056250081</v>
+      </c>
+      <c r="E32" s="14">
+        <v>42</v>
+      </c>
+      <c r="F32" s="10">
+        <v>39.234999999999893</v>
+      </c>
+      <c r="G32" s="10">
+        <v>8.1285683674198292E-2</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15170686412228279</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="0"/>
-        <v>0.23102077056250081</v>
-      </c>
-      <c r="E32" s="17">
-        <v>42</v>
-      </c>
-      <c r="F32" s="12">
-        <v>39.234999999999893</v>
-      </c>
-      <c r="G32" s="12">
-        <v>8.1285683674198292E-2</v>
-      </c>
-      <c r="H32" s="13">
-        <f t="shared" si="1"/>
-        <v>0.15170686412228279</v>
-      </c>
-      <c r="I32">
-        <f>D32/H32</f>
         <v>1.5228102689953917</v>
       </c>
       <c r="K32">
@@ -19564,34 +19604,34 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>38</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>41.229999999999897</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>-0.11643664911679494</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.19370763664199597</v>
+      </c>
+      <c r="E33" s="14">
+        <v>39</v>
+      </c>
+      <c r="F33" s="10">
+        <v>40.786666666666598</v>
+      </c>
+      <c r="G33" s="10">
+        <v>-7.0421180448084514E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13698530987357443</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.19370763664199597</v>
-      </c>
-      <c r="E33" s="17">
-        <v>39</v>
-      </c>
-      <c r="F33" s="12">
-        <v>40.786666666666598</v>
-      </c>
-      <c r="G33" s="12">
-        <v>-7.0421180448084514E-2</v>
-      </c>
-      <c r="H33" s="13">
-        <f t="shared" si="1"/>
-        <v>0.13698530987357443</v>
-      </c>
-      <c r="I33">
-        <f>D33/H33</f>
         <v>1.4140759824595157</v>
       </c>
       <c r="K33">
@@ -19600,34 +19640,34 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>36</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>42.559999999999896</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>7.7270987525201021E-2</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
+        <f t="shared" si="1"/>
+        <v>0.23539340344380999</v>
+      </c>
+      <c r="E34" s="14">
+        <v>36</v>
+      </c>
+      <c r="F34" s="10">
+        <v>42.559999999999896</v>
+      </c>
+      <c r="G34" s="10">
+        <v>6.6564129425489921E-2</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17740720459036691</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.23539340344380999</v>
-      </c>
-      <c r="E34" s="17">
-        <v>36</v>
-      </c>
-      <c r="F34" s="12">
-        <v>42.559999999999896</v>
-      </c>
-      <c r="G34" s="12">
-        <v>6.6564129425489921E-2</v>
-      </c>
-      <c r="H34" s="13">
-        <f t="shared" si="1"/>
-        <v>0.17740720459036691</v>
-      </c>
-      <c r="I34">
-        <f>D34/H34</f>
         <v>1.3268536866207501</v>
       </c>
       <c r="K34">
@@ -19636,28 +19676,28 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>43.889999999999894</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>-0.15812241591860896</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>34</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="10">
         <v>43.446666666666594</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>-0.11084307516487697</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19670,745 +19710,745 @@
         <v>1.2526319878252914</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>43.446666666666594</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>-0.11084307516487697</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>7127</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>11333</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>-888.45801526717514</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>-0.11084307516487697</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
         <v>39</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>40.786666666666598</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>-7.0421180448084514E-2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>7451</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>-564.45801526717514</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>-7.0421180448084514E-2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+    <row r="40" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
         <v>42</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>39.234999999999893</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>8.1285683674198292E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>8667</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>651.54198473282486</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>8.1285683674198292E-2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>0.66499999999989079</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
         <v>43</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>38.569999999999894</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>-0.13916335325349391</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>-1115.4580152671751</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>-0.13916335325349391</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
         <v>46</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>37.239999999999888</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.1058631937334826</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>8864</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>848.54198473282486</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>0.1058631937334826</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>1.3299999999998864</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
         <v>49</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>35.577499999999894</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>-0.18806885550344035</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>6508</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>-1507.4580152671751</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>-0.18806885550344035</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>0.99749999999989214</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
         <v>51</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>34.912499999999895</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.23636103902288047</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>9910</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>1894.5419847328249</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>0.23636103902288047</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>0.33249999999989299</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
         <v>54</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>33.249999999999893</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>-0.22923930382609933</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>6178</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>-1837.4580152671751</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>-0.22923930382609933</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
         <v>57</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>31.919999999999895</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.19494107283159931</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>9578</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>1562.5419847328249</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>0.19494107283159931</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
         <v>60</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>30.14666666666659</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>-0.18781933763481817</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>6510</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>-1505.4580152671751</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>-0.18781933763481817</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>0.88666666666658855</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
         <v>63</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>28.816666666666592</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.20891407347444116</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>9690</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>1674.5419847328249</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>0.20891407347444116</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>0.88666666666659033</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
         <v>66</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>27.59749999999989</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>-0.17035308683126588</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>6650</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>-1365.4580152671751</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>-0.17035308683126588</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>0.99749999999988859</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
         <v>69</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>26.599999999999895</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>0.17897192923978006</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>9450</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>1434.5419847328249</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>0.17897192923978006</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
         <v>71</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>25.269999999999897</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>-0.23984381324254181</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>6093</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>-1922.4580152671751</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>-0.23984381324254181</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
         <v>75</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>23.939999999999891</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>0.27079450489274071</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>10186</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>2170.5419847328249</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>0.27079450489274071</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
         <v>78</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>22.609999999999893</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>-0.21776148186947925</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>6270</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>-1745.4580152671751</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>-0.21776148186947925</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
         <v>82</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>20.836666666666595</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>0.26730125473203026</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>10158</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>2142.5419847328249</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>0.26730125473203026</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>0.88666666666659388</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
         <v>85</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>19.683999999999891</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>-0.20690745458441462</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>6357</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>-1658.4580152671751</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>-0.20690745458441462</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>1.0639999999998899</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
         <v>89</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>18.619999999999891</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>0.25669674531558778</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>10073</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>2057.5419847328249</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>0.25669674531558778</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
         <v>92</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>17.289999999999893</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>-0.23847146496511984</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>6104</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>-1911.4580152671751</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>-0.23847146496511984</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
         <v>97</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>14.629999999999896</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>0.30946977452917795</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>10496</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>2480.5419847328249</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>0.30946977452917795</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
         <v>101</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>13.033999999999892</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>-0.25182067093640625</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>5997</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>-2018.4580152671751</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>-0.25182067093640625</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <v>1.0639999999998917</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
         <v>106</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>11.703999999999894</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>0.35363443727530303</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>10850</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>2834.5419847328249</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>0.35363443727530303</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>1.0639999999998935</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
         <v>109</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>10.905999999999892</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>-0.21514154424894641</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>6291</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>-1724.4580152671751</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>-0.21514154424894641</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>0.26599999999989166</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
         <v>115</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>9.0883333333332956</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>0.35226208899788108</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>10839</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>2823.5419847328249</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>0.35226208899788108</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
         <v>120</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>-0.27065927001738049</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>5846</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>-2169.4580152671751</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>-0.27065927001738049</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
         <v>125</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>6.6499999999999915</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>0.3460241422823267</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>10789</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>2773.5419847328249</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>0.3460241422823267</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>1.3299999999999912</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
         <v>130</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>5.3199999999999932</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>-0.2902464227042213</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>5689</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>-2326.4580152671751</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>-0.2902464227042213</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <v>1.329999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
         <v>138</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>3.7683333333332953</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>0.39505440346658421</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>11182</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>3166.5419847328249</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>0.39505440346658421</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
         <v>145</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>2.4181818181818002</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>-0.28325992238280034</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>5745</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>-2270.4580152671751</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>-0.28325992238280034</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <v>1.0881818181818002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
         <v>152</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>1.5718181818180952</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>0.41389300254755845</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>11333</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>3317.5419847328249</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>0.41389300254755845</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <v>0.24181818181809511</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
         <v>161</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>0.29555555555548807</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>-0.27490107378395751</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>5812</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>-2203.4580152671751</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>-0.27490107378395751</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <v>0.29555555555548807</v>
       </c>
     </row>
@@ -20432,7 +20472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D33"/>
     </sheetView>
   </sheetViews>
@@ -20442,13 +20482,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="15">
         <v>0.80500171344901705</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>0.6887940763315159</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="16">
         <v>1.1687117254788506</v>
       </c>
     </row>
@@ -20456,13 +20496,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <v>0.78751118192378033</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>0.69715292493035874</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="16">
         <v>1.1296103821158721</v>
       </c>
     </row>
@@ -20470,13 +20510,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>0.76419047322346478</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>0.67831432584938456</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>1.1266022905627804</v>
       </c>
     </row>
@@ -20484,13 +20524,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>0.77628809086175354</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>0.68530082617080557</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>1.1327698161395039</v>
       </c>
     </row>
@@ -20498,13 +20538,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <v>0.7929040958107284</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>0.63627056498654799</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>1.2461744098243677</v>
       </c>
     </row>
@@ -20512,13 +20552,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>0.81841112095169855</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>0.61668341229970713</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>1.3271171311381926</v>
       </c>
     </row>
@@ -20526,13 +20566,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>0.7102613343539852</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>0.62292135901526158</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <v>1.1402102754620489</v>
       </c>
     </row>
@@ -20540,13 +20580,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>0.70166182302074387</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>0.56740363324682752</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>1.2366184879812223</v>
       </c>
     </row>
@@ -20554,13 +20594,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>0.7147797216646713</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>0.56877598152424946</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>1.2566981463407612</v>
       </c>
     </row>
@@ -20568,13 +20608,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <v>0.72760611144984488</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>0.60545510821170923</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>1.2017507187261574</v>
       </c>
     </row>
@@ -20582,13 +20622,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>0.74713720498635916</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>0.56129044546558426</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>1.3311062232078743</v>
       </c>
     </row>
@@ -20596,13 +20636,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>0.73372779748367778</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>0.54794123949429774</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>1.3390629224419117</v>
       </c>
     </row>
@@ -20610,13 +20650,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>0.66624349668213956</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>0.49516821028070762</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>1.3454892354750529</v>
       </c>
     </row>
@@ -20624,13 +20664,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>0.69379108383438726</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>0.4636041999000024</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <v>1.4965159590530785</v>
       </c>
     </row>
@@ -20638,13 +20678,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>0.71128161535962398</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>0.47420870931644488</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <v>1.499933681911729</v>
       </c>
     </row>
@@ -20652,13 +20692,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="15">
         <v>0.66857556755217118</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>0.4850627366015095</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <v>1.3783280328569576</v>
       </c>
     </row>
@@ -20666,13 +20706,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="15">
         <v>0.61435491982393753</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>0.48855598676221995</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="16">
         <v>1.257491334607151</v>
       </c>
     </row>
@@ -20680,13 +20720,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="15">
         <v>0.58010262892034903</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>0.51063831813528249</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="16">
         <v>1.1360342698893653</v>
       </c>
     </row>
@@ -20694,13 +20734,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>0.54526732029925273</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>0.4188157424823219</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="16">
         <v>1.3019265156258264</v>
       </c>
     </row>
@@ -20708,13 +20748,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="15">
         <v>0.5518262696212165</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>0.34932501607104594</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>1.5796929628108447</v>
       </c>
     </row>
@@ -20722,13 +20762,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="15">
         <v>0.46889199930571934</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>0.37926716030570706</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="16">
         <v>1.2363105704373942</v>
       </c>
     </row>
@@ -20736,13 +20776,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="15">
         <v>0.50693390537310901</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <v>0.3967334111092593</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="16">
         <v>1.2777696336583579</v>
       </c>
     </row>
@@ -20750,13 +20790,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="15">
         <v>0.4933787434410507</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>0.38276041046641751</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <v>1.2890015005466156</v>
       </c>
     </row>
@@ -20764,13 +20804,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="15">
         <v>0.32634416737504063</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="15">
         <v>0.42418037665769864</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>0.76935234474175351</v>
       </c>
     </row>
@@ -20778,13 +20818,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="15">
         <v>0.38610348341959921</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>0.46560034284897978</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>0.82925944825782516</v>
       </c>
     </row>
@@ -20792,13 +20832,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="15">
         <v>0.42108454647007248</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>0.42442989452632085</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>0.99211801972624503</v>
       </c>
     </row>
@@ -20806,13 +20846,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="15">
         <v>0.35330873680978048</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>0.29393204923692295</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="16">
         <v>1.2020082115135295</v>
       </c>
     </row>
@@ -20820,13 +20860,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="15">
         <v>0.31876493704743802</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="15">
         <v>0.24502654698697651</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="16">
         <v>1.3009404122418653</v>
       </c>
     </row>
@@ -20834,13 +20874,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="15">
         <v>0.26629334247172809</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="15">
         <v>0.22044903692769219</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="16">
         <v>1.2079587472140916</v>
       </c>
     </row>
@@ -20848,13 +20888,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="15">
         <v>0.23102077056250081</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="15">
         <v>0.15170686412228279</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="16">
         <v>1.5228102689953917</v>
       </c>
     </row>
@@ -20862,13 +20902,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="15">
         <v>0.19370763664199597</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="15">
         <v>0.13698530987357443</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="16">
         <v>1.4140759824595157</v>
       </c>
     </row>
@@ -20876,13 +20916,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="15">
         <v>0.23539340344380999</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="15">
         <v>0.17740720459036691</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="16">
         <v>1.3268536866207501</v>
       </c>
     </row>
@@ -20930,7 +20970,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>33</v>
       </c>
       <c r="B2">
@@ -20942,7 +20982,7 @@
       <c r="D2">
         <v>-3.5738196709602099E-2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
@@ -20950,7 +20990,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>36</v>
       </c>
       <c r="B3">
@@ -20962,11 +21002,11 @@
       <c r="D3">
         <v>6.6564129425489921E-2</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E2:F33" si="0">ABS(C2-C3)</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:F33" si="0">ABS(C2-C3)</f>
         <v>0.23539340344380999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>0.10230232613509202</v>
       </c>
@@ -20976,7 +21016,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>38</v>
       </c>
       <c r="B4">
@@ -20988,11 +21028,11 @@
       <c r="D4">
         <v>-5.5824385133687239E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0.19370763664199597</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0.12238851455917715</v>
       </c>
@@ -21002,7 +21042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>41</v>
       </c>
       <c r="B5">
@@ -21014,11 +21054,11 @@
       <c r="D5">
         <v>4.4606556986738467E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.23102077056250081</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.10043094212042571</v>
       </c>
@@ -21028,7 +21068,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43</v>
       </c>
       <c r="B6">
@@ -21040,11 +21080,11 @@
       <c r="D6">
         <v>-0.13916335325349391</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.26629334247172809</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0.18376991024023237</v>
       </c>
@@ -21054,7 +21094,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>46</v>
       </c>
       <c r="B7">
@@ -21066,11 +21106,11 @@
       <c r="D7">
         <v>0.1058631937334826</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.31876493704743802</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0.24502654698697651</v>
       </c>
@@ -21080,7 +21120,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>48</v>
       </c>
       <c r="B8">
@@ -21092,11 +21132,11 @@
       <c r="D8">
         <v>-0.1422823266112711</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.35330873680978048</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>0.24814552034475371</v>
       </c>
@@ -21106,7 +21146,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>52</v>
       </c>
       <c r="B9">
@@ -21118,11 +21158,11 @@
       <c r="D9">
         <v>0.15676483893240642</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.42108454647007248</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0.2990471655436775</v>
       </c>
@@ -21132,7 +21172,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>54</v>
       </c>
       <c r="B10">
@@ -21144,11 +21184,11 @@
       <c r="D10">
         <v>-0.22923930382609933</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.38610348341959921</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0.38600414275850575</v>
       </c>
@@ -21158,7 +21198,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>57</v>
       </c>
       <c r="B11">
@@ -21170,11 +21210,11 @@
       <c r="D11">
         <v>0.19494107283159931</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.32634416737504063</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0.42418037665769864</v>
       </c>
@@ -21184,7 +21224,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>59</v>
       </c>
       <c r="B12">
@@ -21196,11 +21236,11 @@
       <c r="D12">
         <v>-0.15226304135615815</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.4933787434410507</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>0.34720411418775743</v>
       </c>
@@ -21210,7 +21250,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>62</v>
       </c>
       <c r="B13">
@@ -21222,11 +21262,11 @@
       <c r="D13">
         <v>7.5546772695888248E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.50693390537310901</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0.22780981405204639</v>
       </c>
@@ -21236,7 +21276,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>65</v>
       </c>
       <c r="B14">
@@ -21248,11 +21288,11 @@
       <c r="D14">
         <v>-0.12494083474202991</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0.46889199930571934</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>0.20048760743791816</v>
       </c>
@@ -21262,7 +21302,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>69</v>
       </c>
       <c r="B15">
@@ -21274,11 +21314,11 @@
       <c r="D15">
         <v>0.17897192923978006</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0.5518262696212165</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0.30391276398181</v>
       </c>
@@ -21300,11 +21340,11 @@
       <c r="D16">
         <v>-0.23984381324254181</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0.54526732029925273</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0.4188157424823219</v>
       </c>
@@ -21326,11 +21366,11 @@
       <c r="D17">
         <v>0.27079450489274071</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0.58010262892034903</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>0.51063831813528249</v>
       </c>
@@ -21352,11 +21392,11 @@
       <c r="D18">
         <v>-0.21776148186947925</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0.61435491982393753</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0.48855598676221995</v>
       </c>
@@ -21378,11 +21418,11 @@
       <c r="D19">
         <v>0.15439441918049576</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0.66857556755217118</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>0.37215590104997498</v>
       </c>
@@ -21404,11 +21444,11 @@
       <c r="D20">
         <v>-0.19780005237970522</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0.71128161535962398</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0.35219447156020101</v>
       </c>
@@ -21430,11 +21470,11 @@
       <c r="D21">
         <v>0.25669674531558778</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0.69379108383438726</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0.454496797695293</v>
       </c>
@@ -21456,11 +21496,11 @@
       <c r="D22">
         <v>-0.21576533892050184</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0.66624349668213956</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>0.4724620842360896</v>
       </c>
@@ -21482,11 +21522,11 @@
       <c r="D23">
         <v>0.30946977452917795</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0.73372779748367778</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0.52523511344967977</v>
       </c>
@@ -21508,11 +21548,11 @@
       <c r="D24">
         <v>-0.20366372229232632</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0.74713720498635916</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>0.51313349682150422</v>
       </c>
@@ -21534,11 +21574,11 @@
       <c r="D25">
         <v>0.29462346134615852</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>0.72760611144984488</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>0.49828718363848484</v>
       </c>
@@ -21560,11 +21600,11 @@
       <c r="D26">
         <v>-0.2091531154020142</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>0.7147797216646713</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>0.50377657674817278</v>
       </c>
@@ -21574,23 +21614,23 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>114</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>9.3099999999999952</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.37796237532989452</v>
       </c>
       <c r="D27">
         <v>0.24284850360705704</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0.70166182302074387</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>0.45200161900907121</v>
       </c>
@@ -21600,23 +21640,23 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>120</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>-0.33229895902409068</v>
       </c>
       <c r="D28">
         <v>-0.27065927001738049</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>0.7102613343539852</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>0.51350777362443756</v>
       </c>
@@ -21638,11 +21678,11 @@
       <c r="D29">
         <v>0.3460241422823267</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>0.81841112095169855</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>0.61668341229970713</v>
       </c>
@@ -21652,23 +21692,23 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>130</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>5.3199999999999932</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>-0.30679193388312054</v>
       </c>
       <c r="D30">
         <v>-0.2902464227042213</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0.7929040958107284</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>0.63627056498654799</v>
       </c>
@@ -21678,23 +21718,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>137</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>3.9899999999999949</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.46949615697863301</v>
       </c>
       <c r="D31">
         <v>0.30410514035380115</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0.77628809086175354</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>0.5943515630580225</v>
       </c>
@@ -21704,23 +21744,23 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>143</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>2.6599999999999966</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>-0.29469431624483183</v>
       </c>
       <c r="D32">
         <v>-0.25169591200209512</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>0.76419047322346478</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>0.55580105235589627</v>
       </c>
@@ -21730,23 +21770,23 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>154</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1.3299999999999912</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.49281686567894856</v>
       </c>
       <c r="D33">
         <v>0.33866336515797252</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>0.78751118192378033</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>0.59035927716006764</v>
       </c>
@@ -21756,23 +21796,23 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>163</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>-0.3121848477700685</v>
       </c>
       <c r="D34">
         <v>-0.25543868003142778</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f>ABS(C33-C34)</f>
         <v>0.80500171344901705</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" ref="F34" si="2">ABS(D33-D34)</f>
         <v>0.59410204518940035</v>
       </c>

--- a/Graphs/11次高調波の比較.xlsx
+++ b/Graphs/11次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="比較(ボツ）" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">強!$A$1:$J$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">弱!$A$1:$J$132</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>AVRAGE</t>
     <phoneticPr fontId="1"/>
@@ -167,16 +167,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>比</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
+    <t>平均値</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平均値</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位相差</t>
     <rPh sb="0" eb="3">
-      <t>ヘイキンチ</t>
+      <t>イソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +224,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -285,11 +306,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,17 +482,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,6 +514,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,184 +609,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>15.959999999999894</c:v>
@@ -1244,184 +1445,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="1">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.959999999999894</c:v>
@@ -2051,11 +2252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454862552"/>
-        <c:axId val="454867648"/>
+        <c:axId val="1262816048"/>
+        <c:axId val="1262809384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454862552"/>
+        <c:axId val="1262816048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2098,7 +2299,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2165,12 +2365,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454867648"/>
+        <c:crossAx val="1262809384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454867648"/>
+        <c:axId val="1262809384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2416,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2283,7 +2482,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454862552"/>
+        <c:crossAx val="1262816048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2434,6 +2633,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2513,184 +2713,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>15.959999999999894</c:v>
@@ -3320,8 +3520,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454863728"/>
-        <c:axId val="578459648"/>
+        <c:axId val="1262832120"/>
+        <c:axId val="1262836824"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3846,7 +4046,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454863728"/>
+        <c:axId val="1262832120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,12 +4103,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578459648"/>
+        <c:crossAx val="1262836824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578459648"/>
+        <c:axId val="1262836824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,7 +4165,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454863728"/>
+        <c:crossAx val="1262832120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4081,184 +4281,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="1">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.959999999999894</c:v>
@@ -4888,11 +5088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="578456904"/>
-        <c:axId val="578462392"/>
+        <c:axId val="1262835256"/>
+        <c:axId val="1262832512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="578456904"/>
+        <c:axId val="1262835256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5000,12 +5200,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578462392"/>
+        <c:crossAx val="1262832512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578462392"/>
+        <c:axId val="1262832512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5117,7 +5317,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578456904"/>
+        <c:crossAx val="1262835256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5240,6 +5440,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>測定1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5271,103 +5474,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.579999999999892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.959999999999894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3099999999999952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.9799999999999969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3099999999999952</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.969999999999892</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.299999999999891</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.959999999999894</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.619999999999891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.949999999999896</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.259999999999891</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.579999999999892</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35.90999999999989</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37.239999999999888</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38.569999999999894</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.899999999999892</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41.229999999999897</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42.559999999999896</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.889999999999894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5379,103 +5582,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>-0.3121848477700685</c:v>
+                  <c:v>-0.15812241591860896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49281686567894856</c:v>
+                  <c:v>7.7270987525201021E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.29469431624483183</c:v>
+                  <c:v>-0.11643664911679494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46949615697863301</c:v>
+                  <c:v>0.11458412144570589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.30679193388312054</c:v>
+                  <c:v>-0.15170922102602219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48611216192760787</c:v>
+                  <c:v>0.16705571602141586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.33229895902409068</c:v>
+                  <c:v>-0.18625302078836459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37796237532989452</c:v>
+                  <c:v>0.2348315256817079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.3236994476908493</c:v>
+                  <c:v>-0.15127195773789129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.391080273973822</c:v>
+                  <c:v>0.17507220963714934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.33652583747602288</c:v>
+                  <c:v>-0.31830653380390134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41061136751033628</c:v>
+                  <c:v>0.18862737156920772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.32311642997334145</c:v>
+                  <c:v>-0.28026462773651162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34312706670879817</c:v>
+                  <c:v>0.27156164188470489</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.35066401712558914</c:v>
+                  <c:v>-0.27370567841454785</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36061759823403483</c:v>
+                  <c:v>0.30639695050580124</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.30795796931813629</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30639695050580124</c:v>
+                  <c:v>0.36061759823403483</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.27370567841454785</c:v>
+                  <c:v>-0.35066401712558914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27156164188470489</c:v>
+                  <c:v>0.34312706670879817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.28026462773651162</c:v>
+                  <c:v>-0.32311642997334145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.18862737156920772</c:v>
+                  <c:v>0.41061136751033628</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.31830653380390134</c:v>
+                  <c:v>-0.33652583747602288</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17507220963714934</c:v>
+                  <c:v>0.391080273973822</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.15127195773789129</c:v>
+                  <c:v>-0.3236994476908493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2348315256817079</c:v>
+                  <c:v>0.37796237532989452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.18625302078836459</c:v>
+                  <c:v>-0.33229895902409068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16705571602141586</c:v>
+                  <c:v>0.48611216192760787</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.15170922102602219</c:v>
+                  <c:v>-0.30679193388312054</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11458412144570589</c:v>
+                  <c:v>0.46949615697863301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.11643664911679494</c:v>
+                  <c:v>-0.29469431624483183</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7270987525201021E-2</c:v>
+                  <c:v>0.49281686567894856</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.15812241591860896</c:v>
+                  <c:v>-0.3121848477700685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5485,6 +5688,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>測定2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5516,103 +5722,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>42.116666666666596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.904999999999895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.486666666666594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.29555555555548807</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5718181818180952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4181818181818002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7683333333332953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.9799999999999969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.905999999999892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.703999999999894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.033999999999892</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.289999999999893</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.619999999999891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.683999999999891</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.836666666666595</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.59749999999989</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.816666666666592</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.14666666666659</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.912499999999895</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35.577499999999894</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37.239999999999888</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>38.569999999999894</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.234999999999893</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40.786666666666598</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42.559999999999896</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.446666666666594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5624,103 +5830,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>-0.27490107378395751</c:v>
+                  <c:v>-0.11084307516487697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41389300254755845</c:v>
+                  <c:v>6.6564129425489921E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.28325992238280034</c:v>
+                  <c:v>-7.0421180448084514E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39505440346658421</c:v>
+                  <c:v>8.1285683674198292E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2902464227042213</c:v>
+                  <c:v>-0.13916335325349391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3460241422823267</c:v>
+                  <c:v>0.1058631937334826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.27065927001738049</c:v>
+                  <c:v>-0.18806885550344035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35226208899788108</c:v>
+                  <c:v>0.23636103902288047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.21514154424894641</c:v>
+                  <c:v>-0.22923930382609933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35363443727530303</c:v>
+                  <c:v>0.19494107283159931</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.25182067093640625</c:v>
+                  <c:v>-0.18781933763481817</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30946977452917795</c:v>
+                  <c:v>0.20891407347444116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.23847146496511984</c:v>
+                  <c:v>-0.17035308683126588</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25669674531558778</c:v>
+                  <c:v>0.17897192923978006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.20690745458441462</c:v>
+                  <c:v>-0.23984381324254181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26730125473203026</c:v>
+                  <c:v>0.27079450489274071</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.21776148186947925</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27079450489274071</c:v>
+                  <c:v>0.26730125473203026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.23984381324254181</c:v>
+                  <c:v>-0.20690745458441462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17897192923978006</c:v>
+                  <c:v>0.25669674531558778</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.17035308683126588</c:v>
+                  <c:v>-0.23847146496511984</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20891407347444116</c:v>
+                  <c:v>0.30946977452917795</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.18781933763481817</c:v>
+                  <c:v>-0.25182067093640625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19494107283159931</c:v>
+                  <c:v>0.35363443727530303</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.22923930382609933</c:v>
+                  <c:v>-0.21514154424894641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.23636103902288047</c:v>
+                  <c:v>0.35226208899788108</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.18806885550344035</c:v>
+                  <c:v>-0.27065927001738049</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1058631937334826</c:v>
+                  <c:v>0.3460241422823267</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.13916335325349391</c:v>
+                  <c:v>-0.2902464227042213</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1285683674198292E-2</c:v>
+                  <c:v>0.39505440346658421</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.0421180448084514E-2</c:v>
+                  <c:v>-0.28325992238280034</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.6564129425489921E-2</c:v>
+                  <c:v>0.41389300254755845</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.11084307516487697</c:v>
+                  <c:v>-0.27490107378395751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5735,11 +5941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="578464352"/>
-        <c:axId val="578461216"/>
+        <c:axId val="1262837216"/>
+        <c:axId val="1262830552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="578464352"/>
+        <c:axId val="1262837216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -5782,6 +5988,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5848,12 +6055,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578461216"/>
+        <c:crossAx val="1262830552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578461216"/>
+        <c:axId val="1262830552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5899,6 +6106,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5965,7 +6173,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578464352"/>
+        <c:crossAx val="1262837216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5985,7 +6193,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.4111738857501569"/>
           <c:y val="0.10053822266830652"/>
-          <c:w val="3.4761904761904765E-2"/>
+          <c:w val="0.20880279010071484"/>
           <c:h val="0.10067184554950767"/>
         </c:manualLayout>
       </c:layout>
@@ -6358,8 +6566,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474835448"/>
-        <c:axId val="474824472"/>
+        <c:axId val="1262832904"/>
+        <c:axId val="1262833296"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6625,7 +6833,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474835448"/>
+        <c:axId val="1262832904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6682,12 +6890,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474824472"/>
+        <c:crossAx val="1262833296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474824472"/>
+        <c:axId val="1262833296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6952,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474835448"/>
+        <c:crossAx val="1262832904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7096,11 +7304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474826824"/>
-        <c:axId val="474827608"/>
+        <c:axId val="1262836432"/>
+        <c:axId val="1262830160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474826824"/>
+        <c:axId val="1262836432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7157,12 +7365,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474827608"/>
+        <c:crossAx val="1262830160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474827608"/>
+        <c:axId val="1262830160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7219,7 +7427,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474826824"/>
+        <c:crossAx val="1262836432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10645,16 +10853,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10717,16 +10925,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20706</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>477906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11104,7 +11312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
@@ -11120,8 +11328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11136,10 +11344,10 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="27"/>
       <c r="H1" t="s">
         <v>9</v>
       </c>
@@ -11152,7 +11360,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C2">
         <v>5776</v>
@@ -11178,7 +11386,7 @@
       </c>
       <c r="J2" s="2">
         <f>MOD(B2,1.33)</f>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -11186,7 +11394,7 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C3">
         <v>6522</v>
@@ -11212,7 +11420,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="3">MOD(B3,1.33)</f>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -11220,7 +11428,7 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C4">
         <v>7128</v>
@@ -11246,7 +11454,7 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -11254,7 +11462,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C5">
         <v>7391</v>
@@ -11280,7 +11488,7 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -11288,7 +11496,7 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C6">
         <v>6151</v>
@@ -11314,7 +11522,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -11322,7 +11530,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C7">
         <v>6062</v>
@@ -11341,7 +11549,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -11349,7 +11557,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C8">
         <v>6298</v>
@@ -11368,7 +11576,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659566</v>
+        <v>0.88666666666659744</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -11376,7 +11584,7 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C9">
         <v>7071</v>
@@ -11395,7 +11603,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -11403,7 +11611,7 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C10">
         <v>7647</v>
@@ -11422,7 +11630,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -11430,7 +11638,7 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C11">
         <v>6789</v>
@@ -11449,7 +11657,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -11457,7 +11665,7 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C12">
         <v>5820</v>
@@ -11476,7 +11684,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -11484,7 +11692,7 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C13">
         <v>6200</v>
@@ -11503,7 +11711,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -11511,7 +11719,7 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C14">
         <v>6756</v>
@@ -11530,7 +11738,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -11538,7 +11746,7 @@
         <v>46</v>
       </c>
       <c r="B15">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C15">
         <v>8007</v>
@@ -11557,7 +11765,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -11565,7 +11773,7 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C16">
         <v>6946</v>
@@ -11584,7 +11792,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -11592,7 +11800,7 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C17">
         <v>5583</v>
@@ -11611,7 +11819,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998882</v>
+        <v>1.3299999999998899</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -11619,7 +11827,7 @@
         <v>49</v>
       </c>
       <c r="B18">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C18">
         <v>5965</v>
@@ -11638,7 +11846,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -11646,7 +11854,7 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C19">
         <v>6275</v>
@@ -11665,7 +11873,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989612</v>
+        <v>0.6649999999998979</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -11673,7 +11881,7 @@
         <v>51</v>
       </c>
       <c r="B20">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C20">
         <v>7153</v>
@@ -11692,7 +11900,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -11700,7 +11908,7 @@
         <v>52</v>
       </c>
       <c r="B21">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C21">
         <v>8472</v>
@@ -11719,7 +11927,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -11727,7 +11935,7 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C22">
         <v>5988</v>
@@ -11746,7 +11954,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -11754,7 +11962,7 @@
         <v>54</v>
       </c>
       <c r="B23">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C23">
         <v>5823</v>
@@ -11773,7 +11981,7 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -11781,7 +11989,7 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C24">
         <v>5940</v>
@@ -11800,7 +12008,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -11808,7 +12016,7 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C25">
         <v>7881</v>
@@ -11827,7 +12035,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -11835,7 +12043,7 @@
         <v>57</v>
       </c>
       <c r="B26">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C26">
         <v>8062</v>
@@ -11854,7 +12062,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -11862,7 +12070,7 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C27">
         <v>5928</v>
@@ -11881,7 +12089,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -11889,7 +12097,7 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C28">
         <v>4677</v>
@@ -11908,7 +12116,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -11916,7 +12124,7 @@
         <v>60</v>
       </c>
       <c r="B29">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C29">
         <v>5564</v>
@@ -11935,7 +12143,7 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666658855</v>
+        <v>0.88666666666659033</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -11943,7 +12151,7 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C30">
         <v>6396</v>
@@ -11962,7 +12170,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -11970,7 +12178,7 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C31">
         <v>8155</v>
@@ -11989,7 +12197,7 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -11997,7 +12205,7 @@
         <v>63</v>
       </c>
       <c r="B32">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C32">
         <v>7950</v>
@@ -12016,7 +12224,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -12024,7 +12232,7 @@
         <v>64</v>
       </c>
       <c r="B33">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C33">
         <v>5563</v>
@@ -12043,7 +12251,7 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -12051,7 +12259,7 @@
         <v>65</v>
       </c>
       <c r="B34">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C34">
         <v>4938</v>
@@ -12070,7 +12278,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -12078,7 +12286,7 @@
         <v>66</v>
       </c>
       <c r="B35">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C35">
         <v>5597</v>
@@ -12097,7 +12305,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999988859</v>
+        <v>0.99749999999989036</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -12105,7 +12313,7 @@
         <v>67</v>
       </c>
       <c r="B36">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C36">
         <v>7295</v>
@@ -12124,7 +12332,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -12132,7 +12340,7 @@
         <v>68</v>
       </c>
       <c r="B37">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C37">
         <v>8288</v>
@@ -12151,7 +12359,7 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="3"/>
-        <v>0.33249999999988944</v>
+        <v>0.33249999999989122</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -12159,7 +12367,7 @@
         <v>69</v>
       </c>
       <c r="B38">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C38">
         <v>8724</v>
@@ -12178,7 +12386,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -12186,7 +12394,7 @@
         <v>70</v>
       </c>
       <c r="B39">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C39">
         <v>6947</v>
@@ -12205,7 +12413,7 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -12213,7 +12421,7 @@
         <v>71</v>
       </c>
       <c r="B40">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C40">
         <v>4983</v>
@@ -12232,7 +12440,7 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -12240,7 +12448,7 @@
         <v>72</v>
       </c>
       <c r="B41">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C41">
         <v>5345</v>
@@ -12259,7 +12467,7 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -12267,7 +12475,7 @@
         <v>73</v>
       </c>
       <c r="B42">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C42">
         <v>6632</v>
@@ -12286,7 +12494,7 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" si="3"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -12294,7 +12502,7 @@
         <v>74</v>
       </c>
       <c r="B43">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C43">
         <v>8306</v>
@@ -12313,7 +12521,7 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -12321,7 +12529,7 @@
         <v>75</v>
       </c>
       <c r="B44">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C44">
         <v>8963</v>
@@ -12340,7 +12548,7 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -12348,7 +12556,7 @@
         <v>76</v>
       </c>
       <c r="B45">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C45">
         <v>6712</v>
@@ -12367,7 +12575,7 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -12375,7 +12583,7 @@
         <v>77</v>
       </c>
       <c r="B46">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C46">
         <v>5050</v>
@@ -12394,7 +12602,7 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -12402,7 +12610,7 @@
         <v>78</v>
       </c>
       <c r="B47">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C47">
         <v>4748</v>
@@ -12421,7 +12629,7 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -12429,7 +12637,7 @@
         <v>79</v>
       </c>
       <c r="B48">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C48">
         <v>5855</v>
@@ -12448,7 +12656,7 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -12456,7 +12664,7 @@
         <v>80</v>
       </c>
       <c r="B49">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C49">
         <v>7359</v>
@@ -12475,7 +12683,7 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -12483,7 +12691,7 @@
         <v>81</v>
       </c>
       <c r="B50">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C50">
         <v>9335</v>
@@ -12502,7 +12710,7 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -12510,7 +12718,7 @@
         <v>82</v>
       </c>
       <c r="B51">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C51">
         <v>8447</v>
@@ -12529,7 +12737,7 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659388</v>
+        <v>0.88666666666659566</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -12537,7 +12745,7 @@
         <v>83</v>
       </c>
       <c r="B52">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C52">
         <v>6124</v>
@@ -12556,7 +12764,7 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -12564,7 +12772,7 @@
         <v>84</v>
       </c>
       <c r="B53">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C53">
         <v>4455</v>
@@ -12583,7 +12791,7 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -12591,7 +12799,7 @@
         <v>85</v>
       </c>
       <c r="B54">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="C54">
         <v>4912</v>
@@ -12610,7 +12818,7 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="3"/>
-        <v>1.0639999999998899</v>
+        <v>1.0639999999998917</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -12618,7 +12826,7 @@
         <v>86</v>
       </c>
       <c r="B55">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C55">
         <v>5764</v>
@@ -12637,7 +12845,7 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="3"/>
-        <v>0.79799999999989168</v>
+        <v>0.79799999999989346</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -12645,7 +12853,7 @@
         <v>87</v>
       </c>
       <c r="B56">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C56">
         <v>7579</v>
@@ -12664,7 +12872,7 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="3"/>
-        <v>0.53199999999989345</v>
+        <v>0.53199999999989522</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -12672,7 +12880,7 @@
         <v>88</v>
       </c>
       <c r="B57">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C57">
         <v>8857</v>
@@ -12691,7 +12899,7 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="3"/>
-        <v>0.26599999999989521</v>
+        <v>0.26599999999989699</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -12699,7 +12907,7 @@
         <v>89</v>
       </c>
       <c r="B58">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C58">
         <v>9215</v>
@@ -12718,7 +12926,7 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -12726,7 +12934,7 @@
         <v>90</v>
       </c>
       <c r="B59">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C59">
         <v>7316</v>
@@ -12745,7 +12953,7 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.99749999999989214</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -12753,7 +12961,7 @@
         <v>91</v>
       </c>
       <c r="B60">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C60">
         <v>4915</v>
@@ -12772,7 +12980,7 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -12780,7 +12988,7 @@
         <v>92</v>
       </c>
       <c r="B61">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C61">
         <v>4924</v>
@@ -12799,7 +13007,7 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -13373,7 +13581,7 @@
       <c r="A83" s="2">
         <v>114</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>9.3099999999999952</v>
       </c>
       <c r="C83" s="2">
@@ -13535,7 +13743,7 @@
       <c r="A89" s="2">
         <v>120</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>7.9799999999999969</v>
       </c>
       <c r="C89" s="2">
@@ -13805,7 +14013,7 @@
       <c r="A99" s="2">
         <v>130</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>5.3199999999999932</v>
       </c>
       <c r="C99" s="2">
@@ -13994,7 +14202,7 @@
       <c r="A106" s="2">
         <v>137</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>3.9899999999999949</v>
       </c>
       <c r="C106" s="2">
@@ -14156,7 +14364,7 @@
       <c r="A112" s="2">
         <v>143</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>2.6599999999999966</v>
       </c>
       <c r="C112" s="2">
@@ -14453,7 +14661,7 @@
       <c r="A123" s="2">
         <v>154</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>1.3299999999999912</v>
       </c>
       <c r="C123" s="2">
@@ -14696,7 +14904,7 @@
       <c r="A132" s="2">
         <v>163</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>0</v>
       </c>
       <c r="C132" s="2">
@@ -14738,7 +14946,7 @@
   <dimension ref="A2:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14752,7 +14960,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C2">
         <f>$G2/$F$2</f>
@@ -14778,41 +14986,41 @@
       </c>
       <c r="J2">
         <f>MOD(B2,1.33)</f>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
         <v>34</v>
       </c>
-      <c r="B3" s="2">
-        <v>43.446666666666594</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="15">
+        <v>42.116666666666596</v>
+      </c>
+      <c r="C3" s="16">
         <f t="shared" ref="C3:C66" si="1">$G3/$F$2</f>
         <v>-0.11084307516487697</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="14">
         <v>7127</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="16">
         <f>MAX(D:D)</f>
         <v>11333</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="16">
         <f t="shared" si="0"/>
         <v>-888.45801526717514</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="16">
         <f t="shared" ref="I3:I66" si="2">$G3/$F$2</f>
         <v>-0.11084307516487697</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="16">
         <f t="shared" ref="J3:J66" si="3">MOD(B3,1.33)</f>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -14820,7 +15028,7 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -14846,41 +15054,41 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+        <v>0.4433333333331948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>36</v>
       </c>
-      <c r="B5" s="2">
-        <v>42.559999999999896</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="15">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="C5" s="16">
         <f t="shared" si="1"/>
         <v>6.6564129425489921E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="14">
         <v>8549</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="16">
         <f>F3-F4</f>
         <v>5644</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>533.54198473282486</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="16">
         <f t="shared" si="2"/>
         <v>6.6564129425489921E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -14888,7 +15096,7 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -14914,7 +15122,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -14922,7 +15130,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -14941,34 +15149,34 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
         <v>39</v>
       </c>
-      <c r="B8" s="2">
-        <v>40.786666666666598</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="15">
+        <v>39.456666666666599</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="1"/>
         <v>-7.0421180448084514E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="14">
         <v>7451</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>-564.45801526717514</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>-7.0421180448084514E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="16">
         <f t="shared" si="3"/>
-        <v>0.88666666666659566</v>
+        <v>0.88666666666659744</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -14976,7 +15184,7 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -14995,7 +15203,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -15003,7 +15211,7 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -15022,61 +15230,61 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="16" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
         <v>42</v>
       </c>
-      <c r="B11" s="2">
-        <v>39.234999999999893</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="15">
+        <v>37.904999999999895</v>
+      </c>
+      <c r="C11" s="16">
         <f t="shared" si="1"/>
         <v>8.1285683674198292E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="14">
         <v>8667</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>651.54198473282486</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="16">
         <f t="shared" si="2"/>
         <v>8.1285683674198292E-2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="16">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
         <v>43</v>
       </c>
-      <c r="B12" s="2">
-        <v>38.569999999999894</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="15">
+        <v>37.239999999999895</v>
+      </c>
+      <c r="C12" s="16">
         <f t="shared" si="1"/>
         <v>-0.13916335325349391</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="14">
         <v>6900</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>-1115.4580152671751</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>-0.13916335325349391</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -15084,7 +15292,7 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -15103,7 +15311,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -15111,7 +15319,7 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -15130,34 +15338,34 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+        <v>0.4433333333331948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
         <v>46</v>
       </c>
-      <c r="B15" s="2">
-        <v>37.239999999999888</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="15">
+        <v>35.90999999999989</v>
+      </c>
+      <c r="C15" s="16">
         <f t="shared" si="1"/>
         <v>0.1058631937334826</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <v>8864</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="16">
         <f t="shared" si="0"/>
         <v>848.54198473282486</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="16">
         <f t="shared" si="2"/>
         <v>0.1058631937334826</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -15165,7 +15373,7 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -15184,7 +15392,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -15192,7 +15400,7 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -15211,34 +15419,34 @@
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>1.3299999999998882</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
         <v>49</v>
       </c>
-      <c r="B18" s="2">
-        <v>35.577499999999894</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="15">
+        <v>34.247499999999896</v>
+      </c>
+      <c r="C18" s="16">
         <f t="shared" si="1"/>
         <v>-0.18806885550344035</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="14">
         <v>6508</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>-1507.4580152671751</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="16">
         <f t="shared" si="2"/>
         <v>-0.18806885550344035</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="16">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -15246,7 +15454,7 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -15265,34 +15473,34 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.66499999999989612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+        <v>0.6649999999998979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
         <v>51</v>
       </c>
-      <c r="B20" s="2">
-        <v>34.912499999999895</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="15">
+        <v>33.582499999999897</v>
+      </c>
+      <c r="C20" s="16">
         <f t="shared" si="1"/>
         <v>0.23636103902288047</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="14">
         <v>9910</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>1894.5419847328249</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="16">
         <f t="shared" si="2"/>
         <v>0.23636103902288047</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="16">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -15300,7 +15508,7 @@
         <v>52</v>
       </c>
       <c r="B21">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -15319,7 +15527,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -15327,7 +15535,7 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -15346,34 +15554,34 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
         <v>54</v>
       </c>
-      <c r="B23" s="2">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="15">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="C23" s="16">
         <f t="shared" si="1"/>
         <v>-0.22923930382609933</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="14">
         <v>6178</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="16">
         <f t="shared" si="0"/>
         <v>-1837.4580152671751</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="16">
         <f t="shared" si="2"/>
         <v>-0.22923930382609933</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -15381,7 +15589,7 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -15400,7 +15608,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -15408,7 +15616,7 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -15427,34 +15635,34 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+        <v>0.44333333333329428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
         <v>57</v>
       </c>
-      <c r="B26" s="2">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="15">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="C26" s="16">
         <f t="shared" si="1"/>
         <v>0.19494107283159931</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="14">
         <v>9578</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="16">
         <f t="shared" si="0"/>
         <v>1562.5419847328249</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="16">
         <f t="shared" si="2"/>
         <v>0.19494107283159931</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -15462,7 +15670,7 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -15481,7 +15689,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -15489,7 +15697,7 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -15508,42 +15716,42 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
         <v>60</v>
       </c>
-      <c r="B29" s="2">
-        <v>30.14666666666659</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="15">
+        <v>28.816666666666592</v>
+      </c>
+      <c r="C29" s="16">
         <f t="shared" si="1"/>
         <v>-0.18781933763481817</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="14">
         <v>6510</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="16">
         <f t="shared" si="0"/>
         <v>-1505.4580152671751</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="16">
         <f t="shared" si="2"/>
         <v>-0.18781933763481817</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="16">
         <f t="shared" si="3"/>
-        <v>0.88666666666658855</v>
+        <v>0.88666666666659033</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>61</v>
       </c>
-      <c r="B30" s="5">
-        <v>29.703333333333291</v>
+      <c r="B30">
+        <v>28.373333333333292</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="1"/>
@@ -15562,7 +15770,7 @@
       </c>
       <c r="J30" s="5">
         <f t="shared" si="3"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -15570,7 +15778,7 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -15589,34 +15797,34 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
         <v>63</v>
       </c>
-      <c r="B32" s="2">
-        <v>28.816666666666592</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="15">
+        <v>27.486666666666594</v>
+      </c>
+      <c r="C32" s="16">
         <f t="shared" si="1"/>
         <v>0.20891407347444116</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="14">
         <v>9690</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="16">
         <f t="shared" si="0"/>
         <v>1674.5419847328249</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="16">
         <f t="shared" si="2"/>
         <v>0.20891407347444116</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="16">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -15624,7 +15832,7 @@
         <v>64</v>
       </c>
       <c r="B33">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -15643,7 +15851,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -15651,7 +15859,7 @@
         <v>65</v>
       </c>
       <c r="B34">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -15670,34 +15878,34 @@
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14">
         <v>66</v>
       </c>
-      <c r="B35" s="2">
-        <v>27.59749999999989</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="15">
+        <v>26.267499999999892</v>
+      </c>
+      <c r="C35" s="16">
         <f t="shared" si="1"/>
         <v>-0.17035308683126588</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="14">
         <v>6650</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="16">
         <f t="shared" si="4"/>
         <v>-1365.4580152671751</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="16">
         <f t="shared" si="2"/>
         <v>-0.17035308683126588</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="16">
         <f t="shared" si="3"/>
-        <v>0.99749999999988859</v>
+        <v>0.99749999999989036</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -15705,7 +15913,7 @@
         <v>67</v>
       </c>
       <c r="B36">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -15724,7 +15932,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -15732,7 +15940,7 @@
         <v>68</v>
       </c>
       <c r="B37">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -15751,34 +15959,34 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>0.33249999999988944</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+        <v>0.33249999999989122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
         <v>69</v>
       </c>
-      <c r="B38" s="2">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38" s="15">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="C38" s="16">
         <f t="shared" si="1"/>
         <v>0.17897192923978006</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="14">
         <v>9450</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="16">
         <f t="shared" si="4"/>
         <v>1434.5419847328249</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="16">
         <f t="shared" si="2"/>
         <v>0.17897192923978006</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -15786,7 +15994,7 @@
         <v>70</v>
       </c>
       <c r="B39">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -15805,34 +16013,34 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
         <v>71</v>
       </c>
-      <c r="B40" s="2">
-        <v>25.269999999999897</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="15">
+        <v>23.939999999999898</v>
+      </c>
+      <c r="C40" s="16">
         <f t="shared" si="1"/>
         <v>-0.23984381324254181</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="14">
         <v>6093</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="16">
         <f t="shared" si="4"/>
         <v>-1922.4580152671751</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="16">
         <f t="shared" si="2"/>
         <v>-0.23984381324254181</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -15840,7 +16048,7 @@
         <v>72</v>
       </c>
       <c r="B41">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -15859,7 +16067,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -15867,7 +16075,7 @@
         <v>73</v>
       </c>
       <c r="B42">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -15886,7 +16094,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -15894,7 +16102,7 @@
         <v>74</v>
       </c>
       <c r="B43">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -15913,34 +16121,34 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+        <v>0.33249999999989477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="14">
         <v>75</v>
       </c>
-      <c r="B44" s="2">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="C44" s="2">
+      <c r="B44" s="15">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="C44" s="16">
         <f t="shared" si="1"/>
         <v>0.27079450489274071</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="14">
         <v>10186</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="16">
         <f t="shared" si="4"/>
         <v>2170.5419847328249</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="16">
         <f t="shared" si="2"/>
         <v>0.27079450489274071</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -15948,7 +16156,7 @@
         <v>76</v>
       </c>
       <c r="B45">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -15967,7 +16175,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -15975,7 +16183,7 @@
         <v>77</v>
       </c>
       <c r="B46">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -15994,34 +16202,34 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
         <v>78</v>
       </c>
-      <c r="B47" s="2">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B47" s="15">
+        <v>21.279999999999895</v>
+      </c>
+      <c r="C47" s="16">
         <f t="shared" si="1"/>
         <v>-0.21776148186947925</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="14">
         <v>6270</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="16">
         <f t="shared" si="4"/>
         <v>-1745.4580152671751</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="16">
         <f t="shared" si="2"/>
         <v>-0.21776148186947925</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -16029,7 +16237,7 @@
         <v>79</v>
       </c>
       <c r="B48">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -16048,7 +16256,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -16056,7 +16264,7 @@
         <v>80</v>
       </c>
       <c r="B49">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -16075,7 +16283,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -16083,7 +16291,7 @@
         <v>81</v>
       </c>
       <c r="B50">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -16102,34 +16310,34 @@
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="14">
         <v>82</v>
       </c>
-      <c r="B51" s="2">
-        <v>20.836666666666595</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="B51" s="15">
+        <v>19.506666666666597</v>
+      </c>
+      <c r="C51" s="16">
         <f t="shared" si="1"/>
         <v>0.26730125473203026</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="14">
         <v>10158</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="16">
         <f t="shared" si="4"/>
         <v>2142.5419847328249</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="16">
         <f t="shared" si="2"/>
         <v>0.26730125473203026</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="16">
         <f t="shared" si="3"/>
-        <v>0.88666666666659388</v>
+        <v>0.88666666666659566</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -16137,7 +16345,7 @@
         <v>83</v>
       </c>
       <c r="B52">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -16156,7 +16364,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -16164,7 +16372,7 @@
         <v>84</v>
       </c>
       <c r="B53">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -16183,34 +16391,34 @@
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="14">
         <v>85</v>
       </c>
-      <c r="B54" s="2">
-        <v>19.683999999999891</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54" s="15">
+        <v>18.353999999999893</v>
+      </c>
+      <c r="C54" s="16">
         <f t="shared" si="1"/>
         <v>-0.20690745458441462</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="14">
         <v>6357</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="16">
         <f t="shared" si="4"/>
         <v>-1658.4580152671751</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="16">
         <f t="shared" si="2"/>
         <v>-0.20690745458441462</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="16">
         <f t="shared" si="3"/>
-        <v>1.0639999999998899</v>
+        <v>1.0639999999998917</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -16218,7 +16426,7 @@
         <v>86</v>
       </c>
       <c r="B55">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -16237,7 +16445,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>0.79799999999989168</v>
+        <v>0.79799999999989346</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -16245,7 +16453,7 @@
         <v>87</v>
       </c>
       <c r="B56">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -16264,7 +16472,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>0.53199999999989345</v>
+        <v>0.53199999999989522</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -16272,7 +16480,7 @@
         <v>88</v>
       </c>
       <c r="B57">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -16291,34 +16499,34 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>0.26599999999989521</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+        <v>0.26599999999989699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="14">
         <v>89</v>
       </c>
-      <c r="B58" s="2">
-        <v>18.619999999999891</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="B58" s="15">
+        <v>17.289999999999893</v>
+      </c>
+      <c r="C58" s="16">
         <f t="shared" si="1"/>
         <v>0.25669674531558778</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="14">
         <v>10073</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="16">
         <f t="shared" si="4"/>
         <v>2057.5419847328249</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="16">
         <f t="shared" si="2"/>
         <v>0.25669674531558778</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -16326,7 +16534,7 @@
         <v>90</v>
       </c>
       <c r="B59">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -16345,7 +16553,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.99749999999989214</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -16353,7 +16561,7 @@
         <v>91</v>
       </c>
       <c r="B60">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -16372,34 +16580,34 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="14">
         <v>92</v>
       </c>
-      <c r="B61" s="2">
-        <v>17.289999999999893</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="B61" s="15">
+        <v>16.292499999999894</v>
+      </c>
+      <c r="C61" s="16">
         <f t="shared" si="1"/>
         <v>-0.23847146496511984</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="14">
         <v>6104</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="16">
         <f t="shared" si="4"/>
         <v>-1911.4580152671751</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="16">
         <f t="shared" si="2"/>
         <v>-0.23847146496511984</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -16510,29 +16718,29 @@
         <v>0.33249999999989122</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+    <row r="66" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="14">
         <v>97</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="15">
         <v>14.629999999999896</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="16">
         <f t="shared" si="1"/>
         <v>0.30946977452917795</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="14">
         <v>10496</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="16">
         <f t="shared" ref="G66:G97" si="5">D66-$F$2</f>
         <v>2480.5419847328249</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="16">
         <f t="shared" si="2"/>
         <v>0.30946977452917795</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="16">
         <f t="shared" si="3"/>
         <v>1.3299999999998953</v>
       </c>
@@ -16618,29 +16826,29 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+    <row r="70" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="14">
         <v>101</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="15">
         <v>13.033999999999892</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="16">
         <f t="shared" si="6"/>
         <v>-0.25182067093640625</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="14">
         <v>5997</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="16">
         <f t="shared" si="5"/>
         <v>-2018.4580152671751</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="16">
         <f t="shared" si="7"/>
         <v>-0.25182067093640625</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="16">
         <f t="shared" si="8"/>
         <v>1.0639999999998917</v>
       </c>
@@ -16753,29 +16961,29 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+    <row r="75" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="14">
         <v>106</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="15">
         <v>11.703999999999894</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="16">
         <f t="shared" si="6"/>
         <v>0.35363443727530303</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="14">
         <v>10850</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="16">
         <f t="shared" si="5"/>
         <v>2834.5419847328249</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="16">
         <f t="shared" si="7"/>
         <v>0.35363443727530303</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="16">
         <f t="shared" si="8"/>
         <v>1.0639999999998935</v>
       </c>
@@ -16834,29 +17042,29 @@
         <v>0.53199999999988989</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+    <row r="78" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
         <v>109</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="15">
         <v>10.905999999999892</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="16">
         <f t="shared" si="6"/>
         <v>-0.21514154424894641</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="14">
         <v>6291</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="16">
         <f t="shared" si="5"/>
         <v>-1724.4580152671751</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="16">
         <f t="shared" si="7"/>
         <v>-0.21514154424894641</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="16">
         <f t="shared" si="8"/>
         <v>0.26599999999989166</v>
       </c>
@@ -16996,29 +17204,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
+    <row r="84" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="14">
         <v>115</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="15">
         <v>9.0883333333332956</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="16">
         <f t="shared" si="6"/>
         <v>0.35226208899788108</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="14">
         <v>10839</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="16">
         <f t="shared" si="5"/>
         <v>2823.5419847328249</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="16">
         <f t="shared" si="7"/>
         <v>0.35226208899788108</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="16">
         <f t="shared" si="8"/>
         <v>1.1083333333332952</v>
       </c>
@@ -17131,29 +17339,29 @@
         <v>0.22166666666659651</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
+    <row r="89" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="14">
         <v>120</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="15">
         <v>7.9799999999999969</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="16">
         <f t="shared" si="6"/>
         <v>-0.27065927001738049</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="14">
         <v>5846</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="16">
         <f t="shared" si="5"/>
         <v>-2169.4580152671751</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="16">
         <f t="shared" si="7"/>
         <v>-0.27065927001738049</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="16">
         <f t="shared" si="8"/>
         <v>1.3299999999999965</v>
       </c>
@@ -17266,29 +17474,29 @@
         <v>0.26599999999999646</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="3">
+    <row r="94" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
         <v>125</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="15">
         <v>6.6499999999999915</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="16">
         <f t="shared" si="6"/>
         <v>0.3460241422823267</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="14">
         <v>10789</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="16">
         <f t="shared" si="5"/>
         <v>2773.5419847328249</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="16">
         <f t="shared" si="7"/>
         <v>0.3460241422823267</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="16">
         <f t="shared" si="8"/>
         <v>1.3299999999999912</v>
       </c>
@@ -17401,29 +17609,29 @@
         <v>0.26599999999999113</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="3">
+    <row r="99" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="14">
         <v>130</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="15">
         <v>5.3199999999999932</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="16">
         <f t="shared" si="6"/>
         <v>-0.2902464227042213</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="14">
         <v>5689</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="16">
         <f t="shared" si="9"/>
         <v>-2326.4580152671751</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="16">
         <f t="shared" si="7"/>
         <v>-0.2902464227042213</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="16">
         <f t="shared" si="8"/>
         <v>1.329999999999993</v>
       </c>
@@ -17617,29 +17825,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="3">
+    <row r="107" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="14">
         <v>138</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="15">
         <v>3.7683333333332953</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="16">
         <f t="shared" si="6"/>
         <v>0.39505440346658421</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="14">
         <v>11182</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="16">
         <f t="shared" si="9"/>
         <v>3166.5419847328249</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="16">
         <f t="shared" si="7"/>
         <v>0.39505440346658421</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="16">
         <f t="shared" si="8"/>
         <v>1.1083333333332952</v>
       </c>
@@ -17806,29 +18014,29 @@
         <v>1.2090909090908948</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="3">
+    <row r="114" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="14">
         <v>145</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="15">
         <v>2.4181818181818002</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="16">
         <f t="shared" si="6"/>
         <v>-0.28325992238280034</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="14">
         <v>5745</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="16">
         <f t="shared" si="9"/>
         <v>-2270.4580152671751</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="16">
         <f t="shared" si="7"/>
         <v>-0.28325992238280034</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="16">
         <f t="shared" si="8"/>
         <v>1.0881818181818002</v>
       </c>
@@ -17995,29 +18203,29 @@
         <v>0.36272727272718974</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="3">
+    <row r="121" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="14">
         <v>152</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="15">
         <v>1.5718181818180952</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="16">
         <f t="shared" si="6"/>
         <v>0.41389300254755845</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="14">
         <v>11333</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="16">
         <f t="shared" si="9"/>
         <v>3317.5419847328249</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="16">
         <f t="shared" si="7"/>
         <v>0.41389300254755845</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="16">
         <f t="shared" si="8"/>
         <v>0.24181818181809511</v>
       </c>
@@ -18238,29 +18446,29 @@
         <v>0.4433333333332925</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="3">
+    <row r="130" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="14">
         <v>161</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="15">
         <v>0.29555555555548807</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="16">
         <f t="shared" si="6"/>
         <v>-0.27490107378395751</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="14">
         <v>5812</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="16">
         <f t="shared" si="9"/>
         <v>-2203.4580152671751</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="16">
         <f t="shared" si="7"/>
         <v>-0.27490107378395751</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J130" s="16">
         <f t="shared" si="8"/>
         <v>0.29555555555548807</v>
       </c>
@@ -18269,7 +18477,7 @@
       <c r="A131" s="4">
         <v>162</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131">
         <v>0.14777777777769785</v>
       </c>
       <c r="C131" s="5">
@@ -18484,10 +18692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18496,819 +18704,910 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
-        <v>21</v>
+      <c r="H2" s="18"/>
+      <c r="I2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>163</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="9">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42.559999999999896</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-0.15812241591860896</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D34" si="0">ABS(C4-C3)</f>
+        <v>0.23539340344380999</v>
+      </c>
+      <c r="E3" s="19">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9">
+        <v>42.116666666666596</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-0.11084307516487697</v>
+      </c>
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H34" si="1">ABS(G4-G3)</f>
+        <v>0.17740720459036691</v>
+      </c>
+      <c r="I3" s="25">
+        <f t="shared" ref="I3:I34" si="2">D3/H3</f>
+        <v>1.3268536866207501</v>
+      </c>
+      <c r="J3" s="25">
+        <f>B3-F3</f>
+        <v>0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="C4" s="9">
+        <v>7.7270987525201021E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.19370763664199597</v>
+      </c>
+      <c r="E4" s="19">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="G4" s="9">
+        <v>6.6564129425489921E-2</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.13698530987357443</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" si="2"/>
+        <v>1.4140759824595157</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" ref="J4:J35" si="3">B4-F4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="10">
-        <v>-0.3121848477700685</v>
-      </c>
-      <c r="D3" s="13">
-        <f>ABS(C4-C3)</f>
-        <v>0.80500171344901705</v>
-      </c>
-      <c r="E3" s="14">
-        <v>161</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.29555555555548807</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-0.27490107378395751</v>
-      </c>
-      <c r="H3" s="11">
-        <f>ABS(G4-G3)</f>
-        <v>0.6887940763315159</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I34" si="0">D3/H3</f>
-        <v>1.1687117254788506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>154</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.3299999999999912</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.49281686567894856</v>
-      </c>
-      <c r="D4" s="13">
-        <f t="shared" ref="D4:D34" si="1">ABS(C5-C4)</f>
-        <v>0.78751118192378033</v>
-      </c>
-      <c r="E4" s="14">
-        <v>152</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.5718181818180952</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.41389300254755845</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:H34" si="2">ABS(G5-G4)</f>
-        <v>0.69715292493035874</v>
-      </c>
-      <c r="I4">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9">
+        <v>39.899999999999899</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-0.11643664911679494</v>
+      </c>
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>1.1296103821158721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>143</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2.6599999999999966</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-0.29469431624483183</v>
-      </c>
-      <c r="D5" s="13">
+        <v>0.23102077056250081</v>
+      </c>
+      <c r="E5" s="19">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9">
+        <v>39.456666666666599</v>
+      </c>
+      <c r="G5" s="9">
+        <v>-7.0421180448084514E-2</v>
+      </c>
+      <c r="H5" s="20">
         <f t="shared" si="1"/>
-        <v>0.76419047322346478</v>
-      </c>
-      <c r="E5" s="14">
-        <v>145</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2.4181818181818002</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-0.28325992238280034</v>
-      </c>
-      <c r="H5" s="11">
+        <v>0.15170686412228279</v>
+      </c>
+      <c r="I5" s="25">
         <f t="shared" si="2"/>
-        <v>0.67831432584938456</v>
-      </c>
-      <c r="I5">
+        <v>1.5228102689953917</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.11458412144570589</v>
+      </c>
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>1.1266022905627804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>137</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3.9899999999999949</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.46949615697863301</v>
-      </c>
-      <c r="D6" s="13">
+        <v>0.26629334247172809</v>
+      </c>
+      <c r="E6" s="19">
+        <v>42</v>
+      </c>
+      <c r="F6" s="9">
+        <v>37.904999999999895</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.1285683674198292E-2</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" si="1"/>
-        <v>0.77628809086175354</v>
-      </c>
-      <c r="E6" s="14">
-        <v>138</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3.7683333333332953</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.39505440346658421</v>
-      </c>
-      <c r="H6" s="11">
+        <v>0.22044903692769219</v>
+      </c>
+      <c r="I6" s="25">
         <f t="shared" si="2"/>
-        <v>0.68530082617080557</v>
-      </c>
-      <c r="I6">
+        <v>1.2079587472140916</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66499999999999915</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K22" si="4">D37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9">
+        <v>37.239999999999895</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-0.15170922102602219</v>
+      </c>
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>1.1327698161395039</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K22" si="3">D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>130</v>
-      </c>
-      <c r="B7" s="10">
-        <v>5.3199999999999932</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-0.30679193388312054</v>
-      </c>
-      <c r="D7" s="13">
+        <v>0.31876493704743802</v>
+      </c>
+      <c r="E7" s="19">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9">
+        <v>37.239999999999895</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-0.13916335325349391</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" si="1"/>
-        <v>0.7929040958107284</v>
-      </c>
-      <c r="E7" s="14">
-        <v>130</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5.3199999999999932</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-0.2902464227042213</v>
-      </c>
-      <c r="H7" s="11">
+        <v>0.24502654698697651</v>
+      </c>
+      <c r="I7" s="25">
         <f t="shared" si="2"/>
-        <v>0.63627056498654799</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1.2461744098243677</v>
-      </c>
-      <c r="K7">
+        <v>1.3009404122418653</v>
+      </c>
+      <c r="J7" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>125</v>
-      </c>
-      <c r="B8" s="10">
-        <v>6.6499999999999915</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.48611216192760787</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="A8" s="9">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9">
+        <v>35.90999999999989</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.16705571602141586</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.35330873680978048</v>
+      </c>
+      <c r="E8" s="19">
+        <v>46</v>
+      </c>
+      <c r="F8" s="9">
+        <v>35.90999999999989</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.1058631937334826</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" si="1"/>
-        <v>0.81841112095169855</v>
-      </c>
-      <c r="E8" s="14">
-        <v>125</v>
-      </c>
-      <c r="F8" s="10">
-        <v>6.6499999999999915</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.3460241422823267</v>
-      </c>
-      <c r="H8" s="11">
+        <v>0.29393204923692295</v>
+      </c>
+      <c r="I8" s="25">
         <f t="shared" si="2"/>
-        <v>0.61668341229970713</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1.3271171311381926</v>
-      </c>
-      <c r="K8">
+        <v>1.2020082115135295</v>
+      </c>
+      <c r="J8" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>120</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7.9799999999999969</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-0.33229895902409068</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="A9" s="9">
+        <v>48</v>
+      </c>
+      <c r="B9" s="9">
+        <v>34.579999999999892</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-0.18625302078836459</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.42108454647007248</v>
+      </c>
+      <c r="E9" s="19">
+        <v>49</v>
+      </c>
+      <c r="F9" s="9">
+        <v>34.247499999999896</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-0.18806885550344035</v>
+      </c>
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
-        <v>0.7102613343539852</v>
-      </c>
-      <c r="E9" s="14">
-        <v>120</v>
-      </c>
-      <c r="F9" s="10">
-        <v>7.9799999999999969</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-0.27065927001738049</v>
-      </c>
-      <c r="H9" s="11">
+        <v>0.42442989452632085</v>
+      </c>
+      <c r="I9" s="25">
         <f t="shared" si="2"/>
-        <v>0.62292135901526158</v>
-      </c>
-      <c r="I9">
+        <v>0.99211801972624503</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33249999999999602</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.2348315256817079</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>1.1402102754620489</v>
-      </c>
-      <c r="K9">
+        <v>0.38610348341959921</v>
+      </c>
+      <c r="E10" s="19">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9">
+        <v>33.582499999999897</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.23636103902288047</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46560034284897978</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.82925944825782516</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.33250000000000313</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-0.15127195773789129</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32634416737504063</v>
+      </c>
+      <c r="E11" s="19">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="G11" s="9">
+        <v>-0.22923930382609933</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.42418037665769864</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="2"/>
+        <v>0.76935234474175351</v>
+      </c>
+      <c r="J11" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>114</v>
-      </c>
-      <c r="B10" s="10">
-        <v>9.3099999999999952</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.37796237532989452</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>57</v>
+      </c>
+      <c r="B12" s="9">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.17507220963714934</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.4933787434410507</v>
+      </c>
+      <c r="E12" s="19">
+        <v>57</v>
+      </c>
+      <c r="F12" s="9">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.19494107283159931</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="1"/>
-        <v>0.70166182302074387</v>
-      </c>
-      <c r="E10" s="14">
-        <v>115</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9.0883333333332956</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.35226208899788108</v>
-      </c>
-      <c r="H10" s="11">
+        <v>0.38276041046641751</v>
+      </c>
+      <c r="I12" s="25">
         <f t="shared" si="2"/>
-        <v>0.56740363324682752</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1.2366184879812223</v>
-      </c>
-      <c r="K10">
+        <v>1.2890015005466156</v>
+      </c>
+      <c r="J12" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
-        <v>110</v>
-      </c>
-      <c r="B11" s="10">
-        <v>10.639999999999894</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-0.3236994476908493</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9">
+        <v>29.259999999999899</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-0.31830653380390134</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.50693390537310901</v>
+      </c>
+      <c r="E13" s="19">
+        <v>60</v>
+      </c>
+      <c r="F13" s="9">
+        <v>28.816666666666592</v>
+      </c>
+      <c r="G13" s="9">
+        <v>-0.18781933763481817</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="1"/>
-        <v>0.7147797216646713</v>
-      </c>
-      <c r="E11" s="14">
-        <v>109</v>
-      </c>
-      <c r="F11" s="10">
-        <v>10.905999999999892</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-0.21514154424894641</v>
-      </c>
-      <c r="H11" s="11">
+        <v>0.3967334111092593</v>
+      </c>
+      <c r="I13" s="25">
         <f t="shared" si="2"/>
-        <v>0.56877598152424946</v>
-      </c>
-      <c r="I11">
+        <v>1.2777696336583579</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="3"/>
+        <v>0.44333333333330671</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9">
+        <v>27.929999999999893</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.18862737156920772</v>
+      </c>
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>1.2566981463407612</v>
-      </c>
-      <c r="K11">
+        <v>0.46889199930571934</v>
+      </c>
+      <c r="E14" s="19">
+        <v>63</v>
+      </c>
+      <c r="F14" s="9">
+        <v>27.486666666666594</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.20891407347444116</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.37926716030570706</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="2"/>
+        <v>1.2363105704373942</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329961</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-0.28026462773651162</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5518262696212165</v>
+      </c>
+      <c r="E15" s="19">
+        <v>66</v>
+      </c>
+      <c r="F15" s="9">
+        <v>26.267499999999892</v>
+      </c>
+      <c r="G15" s="9">
+        <v>-0.17035308683126588</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="1"/>
+        <v>0.34932501607104594</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="2"/>
+        <v>1.5796929628108447</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="3"/>
+        <v>0.33250000000000313</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>69</v>
+      </c>
+      <c r="B16" s="9">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.27156164188470489</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.54526732029925273</v>
+      </c>
+      <c r="E16" s="19">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.17897192923978006</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4188157424823219</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="2"/>
+        <v>1.3019265156258264</v>
+      </c>
+      <c r="J16" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10">
-        <v>11.969999999999892</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.391080273973822</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>71</v>
+      </c>
+      <c r="B17" s="9">
+        <v>23.939999999999898</v>
+      </c>
+      <c r="C17" s="9">
+        <v>-0.27370567841454785</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58010262892034903</v>
+      </c>
+      <c r="E17" s="19">
+        <v>71</v>
+      </c>
+      <c r="F17" s="9">
+        <v>23.939999999999898</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-0.23984381324254181</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="1"/>
-        <v>0.72760611144984488</v>
-      </c>
-      <c r="E12" s="14">
-        <v>106</v>
-      </c>
-      <c r="F12" s="10">
-        <v>11.703999999999894</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.35363443727530303</v>
-      </c>
-      <c r="H12" s="11">
+        <v>0.51063831813528249</v>
+      </c>
+      <c r="I17" s="25">
         <f t="shared" si="2"/>
-        <v>0.60545510821170923</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1.2017507187261574</v>
-      </c>
-      <c r="K12">
+        <v>1.1360342698893653</v>
+      </c>
+      <c r="J17" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>100</v>
-      </c>
-      <c r="B13" s="10">
-        <v>13.299999999999891</v>
-      </c>
-      <c r="C13" s="10">
-        <v>-0.33652583747602288</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>75</v>
+      </c>
+      <c r="B18" s="9">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.30639695050580124</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61435491982393753</v>
+      </c>
+      <c r="E18" s="19">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.27079450489274071</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="1"/>
-        <v>0.74713720498635916</v>
-      </c>
-      <c r="E13" s="14">
-        <v>101</v>
-      </c>
-      <c r="F13" s="10">
-        <v>13.033999999999892</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-0.25182067093640625</v>
-      </c>
-      <c r="H13" s="11">
+        <v>0.48855598676221995</v>
+      </c>
+      <c r="I18" s="25">
         <f t="shared" si="2"/>
-        <v>0.56129044546558426</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1.3311062232078743</v>
-      </c>
-      <c r="K13">
+        <v>1.257491334607151</v>
+      </c>
+      <c r="J18" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>97</v>
-      </c>
-      <c r="B14" s="10">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.41061136751033628</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9">
+        <v>21.279999999999895</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-0.30795796931813629</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.66857556755217118</v>
+      </c>
+      <c r="E19" s="19">
+        <v>78</v>
+      </c>
+      <c r="F19" s="9">
+        <v>21.279999999999895</v>
+      </c>
+      <c r="G19" s="9">
+        <v>-0.21776148186947925</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="1"/>
-        <v>0.73372779748367778</v>
-      </c>
-      <c r="E14" s="14">
-        <v>97</v>
-      </c>
-      <c r="F14" s="10">
-        <v>14.629999999999896</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.30946977452917795</v>
-      </c>
-      <c r="H14" s="11">
+        <v>0.4850627366015095</v>
+      </c>
+      <c r="I19" s="25">
         <f t="shared" si="2"/>
-        <v>0.54794123949429774</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1.3390629224419117</v>
-      </c>
-      <c r="K14">
+        <v>1.3783280328569576</v>
+      </c>
+      <c r="J19" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>93</v>
-      </c>
-      <c r="B15" s="10">
-        <v>15.959999999999894</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-0.32311642997334145</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>81</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19.949999999999896</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.36061759823403483</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.71128161535962398</v>
+      </c>
+      <c r="E20" s="19">
+        <v>82</v>
+      </c>
+      <c r="F20" s="9">
+        <v>19.506666666666597</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.26730125473203026</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="1"/>
+        <v>0.47420870931644488</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="2"/>
+        <v>1.499933681911729</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329961</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>84</v>
+      </c>
+      <c r="B21" s="9">
+        <v>18.619999999999898</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-0.35066401712558914</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.69379108383438726</v>
+      </c>
+      <c r="E21" s="19">
+        <v>85</v>
+      </c>
+      <c r="F21" s="9">
+        <v>18.353999999999893</v>
+      </c>
+      <c r="G21" s="9">
+        <v>-0.20690745458441462</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>0.4636041999000024</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="2"/>
+        <v>1.4965159590530785</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" si="3"/>
+        <v>0.26600000000000534</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>89</v>
+      </c>
+      <c r="B22" s="9">
+        <v>17.289999999999893</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.34312706670879817</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
         <v>0.66624349668213956</v>
       </c>
-      <c r="E15" s="14">
-        <v>92</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E22" s="19">
+        <v>89</v>
+      </c>
+      <c r="F22" s="9">
         <v>17.289999999999893</v>
       </c>
-      <c r="G15" s="10">
-        <v>-0.23847146496511984</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="G22" s="9">
+        <v>0.25669674531558778</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.49516821028070762</v>
+      </c>
+      <c r="I22" s="25">
         <f t="shared" si="2"/>
-        <v>0.49516821028070762</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
         <v>1.3454892354750529</v>
       </c>
-      <c r="K15">
+      <c r="J22" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>89</v>
-      </c>
-      <c r="B16" s="10">
-        <v>18.619999999999891</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.34312706670879817</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>93</v>
+      </c>
+      <c r="B23" s="9">
+        <v>15.959999999999894</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-0.32311642997334145</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.73372779748367778</v>
+      </c>
+      <c r="E23" s="19">
+        <v>92</v>
+      </c>
+      <c r="F23" s="9">
+        <v>16.292499999999894</v>
+      </c>
+      <c r="G23" s="9">
+        <v>-0.23847146496511984</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
-        <v>0.69379108383438726</v>
-      </c>
-      <c r="E16" s="14">
-        <v>89</v>
-      </c>
-      <c r="F16" s="10">
-        <v>18.619999999999891</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.25669674531558778</v>
-      </c>
-      <c r="H16" s="11">
+        <v>0.54794123949429774</v>
+      </c>
+      <c r="I23" s="25">
         <f t="shared" si="2"/>
-        <v>0.4636041999000024</v>
-      </c>
-      <c r="I16">
+        <v>1.3390629224419117</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.33249999999999957</v>
+      </c>
+      <c r="K23">
+        <f>D32</f>
+        <v>0.76419047322346478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>97</v>
+      </c>
+      <c r="B24" s="9">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.41061136751033628</v>
+      </c>
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>1.4965159590530785</v>
-      </c>
-      <c r="K16">
+        <v>0.74713720498635916</v>
+      </c>
+      <c r="E24" s="19">
+        <v>97</v>
+      </c>
+      <c r="F24" s="9">
+        <v>14.629999999999896</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.30946977452917795</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56129044546558426</v>
+      </c>
+      <c r="I24" s="25">
+        <f t="shared" si="2"/>
+        <v>1.3311062232078743</v>
+      </c>
+      <c r="J24" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>84</v>
-      </c>
-      <c r="B17" s="10">
-        <v>19.949999999999896</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-0.35066401712558914</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="1"/>
-        <v>0.71128161535962398</v>
-      </c>
-      <c r="E17" s="14">
-        <v>85</v>
-      </c>
-      <c r="F17" s="10">
-        <v>19.683999999999891</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-0.20690745458441462</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="2"/>
-        <v>0.47420870931644488</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1.499933681911729</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>81</v>
-      </c>
-      <c r="B18" s="10">
-        <v>21.279999999999895</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.36061759823403483</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="1"/>
-        <v>0.66857556755217118</v>
-      </c>
-      <c r="E18" s="14">
-        <v>82</v>
-      </c>
-      <c r="F18" s="10">
-        <v>20.836666666666595</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.26730125473203026</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="2"/>
-        <v>0.4850627366015095</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>1.3783280328569576</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
-        <v>78</v>
-      </c>
-      <c r="B19" s="10">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-0.30795796931813629</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="1"/>
-        <v>0.61435491982393753</v>
-      </c>
-      <c r="E19" s="14">
-        <v>78</v>
-      </c>
-      <c r="F19" s="10">
-        <v>22.609999999999893</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-0.21776148186947925</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="2"/>
-        <v>0.48855598676221995</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>1.257491334607151</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
-        <v>75</v>
-      </c>
-      <c r="B20" s="10">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.30639695050580124</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" si="1"/>
-        <v>0.58010262892034903</v>
-      </c>
-      <c r="E20" s="14">
-        <v>75</v>
-      </c>
-      <c r="F20" s="10">
-        <v>23.939999999999891</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.27079450489274071</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="2"/>
-        <v>0.51063831813528249</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>1.1360342698893653</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>71</v>
-      </c>
-      <c r="B21" s="10">
-        <v>25.269999999999897</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-0.27370567841454785</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="1"/>
-        <v>0.54526732029925273</v>
-      </c>
-      <c r="E21" s="14">
-        <v>71</v>
-      </c>
-      <c r="F21" s="10">
-        <v>25.269999999999897</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-0.23984381324254181</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="2"/>
-        <v>0.4188157424823219</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>1.3019265156258264</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
-        <v>69</v>
-      </c>
-      <c r="B22" s="10">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.27156164188470489</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" si="1"/>
-        <v>0.5518262696212165</v>
-      </c>
-      <c r="E22" s="14">
-        <v>69</v>
-      </c>
-      <c r="F22" s="10">
-        <v>26.599999999999895</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.17897192923978006</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="2"/>
-        <v>0.34932501607104594</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>1.5796929628108447</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
-        <v>65</v>
-      </c>
-      <c r="B23" s="10">
-        <v>27.929999999999893</v>
-      </c>
-      <c r="C23" s="10">
-        <v>-0.28026462773651162</v>
-      </c>
-      <c r="D23" s="13">
-        <f t="shared" si="1"/>
-        <v>0.46889199930571934</v>
-      </c>
-      <c r="E23" s="14">
-        <v>66</v>
-      </c>
-      <c r="F23" s="10">
-        <v>27.59749999999989</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-0.17035308683126588</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="2"/>
-        <v>0.37926716030570706</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>1.2363105704373942</v>
-      </c>
-      <c r="K23">
-        <f>D32</f>
-        <v>0.23102077056250081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10">
-        <v>29.259999999999891</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.18862737156920772</v>
-      </c>
-      <c r="D24" s="13">
-        <f t="shared" si="1"/>
-        <v>0.50693390537310901</v>
-      </c>
-      <c r="E24" s="14">
-        <v>63</v>
-      </c>
-      <c r="F24" s="10">
-        <v>28.816666666666592</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0.20891407347444116</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" si="2"/>
-        <v>0.3967334111092593</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>1.2777696336583579</v>
       </c>
       <c r="K24" t="str">
         <f>D35</f>
@@ -19316,35 +19615,39 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>59</v>
-      </c>
-      <c r="B25" s="10">
-        <v>30.589999999999897</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-0.31830653380390134</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="A25" s="9">
+        <v>100</v>
+      </c>
+      <c r="B25" s="9">
+        <v>13.299999999999891</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-0.33652583747602288</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.72760611144984488</v>
+      </c>
+      <c r="E25" s="19">
+        <v>101</v>
+      </c>
+      <c r="F25" s="9">
+        <v>13.033999999999892</v>
+      </c>
+      <c r="G25" s="9">
+        <v>-0.25182067093640625</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" si="1"/>
-        <v>0.4933787434410507</v>
-      </c>
-      <c r="E25" s="14">
-        <v>60</v>
-      </c>
-      <c r="F25" s="10">
-        <v>30.14666666666659</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-0.18781933763481817</v>
-      </c>
-      <c r="H25" s="11">
+        <v>0.60545510821170923</v>
+      </c>
+      <c r="I25" s="25">
         <f t="shared" si="2"/>
-        <v>0.38276041046641751</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>1.2890015005466156</v>
+        <v>1.2017507187261574</v>
+      </c>
+      <c r="J25" s="25">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999824</v>
       </c>
       <c r="K25">
         <f>D38</f>
@@ -19352,35 +19655,39 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
-        <v>57</v>
-      </c>
-      <c r="B26" s="10">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.17507220963714934</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="A26" s="9">
+        <v>105</v>
+      </c>
+      <c r="B26" s="9">
+        <v>11.969999999999892</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.391080273973822</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>0.7147797216646713</v>
+      </c>
+      <c r="E26" s="19">
+        <v>106</v>
+      </c>
+      <c r="F26" s="9">
+        <v>11.703999999999894</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.35363443727530303</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="1"/>
-        <v>0.32634416737504063</v>
-      </c>
-      <c r="E26" s="14">
-        <v>57</v>
-      </c>
-      <c r="F26" s="10">
-        <v>31.919999999999895</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.19494107283159931</v>
-      </c>
-      <c r="H26" s="11">
+        <v>0.56877598152424946</v>
+      </c>
+      <c r="I26" s="25">
         <f t="shared" si="2"/>
-        <v>0.42418037665769864</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>0.76935234474175351</v>
+        <v>1.2566981463407612</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999824</v>
       </c>
       <c r="K26">
         <f>D41</f>
@@ -19388,35 +19695,39 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>54</v>
-      </c>
-      <c r="B27" s="10">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="C27" s="10">
-        <v>-0.15127195773789129</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="A27" s="9">
+        <v>110</v>
+      </c>
+      <c r="B27" s="9">
+        <v>10.639999999999894</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-0.3236994476908493</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>0.70166182302074387</v>
+      </c>
+      <c r="E27" s="19">
+        <v>109</v>
+      </c>
+      <c r="F27" s="9">
+        <v>10.905999999999892</v>
+      </c>
+      <c r="G27" s="9">
+        <v>-0.21514154424894641</v>
+      </c>
+      <c r="H27" s="20">
         <f t="shared" si="1"/>
-        <v>0.38610348341959921</v>
-      </c>
-      <c r="E27" s="14">
-        <v>54</v>
-      </c>
-      <c r="F27" s="10">
-        <v>33.249999999999893</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-0.22923930382609933</v>
-      </c>
-      <c r="H27" s="11">
+        <v>0.56740363324682752</v>
+      </c>
+      <c r="I27" s="25">
         <f t="shared" si="2"/>
-        <v>0.46560034284897978</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0.82925944825782516</v>
+        <v>1.2366184879812223</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.26599999999999824</v>
       </c>
       <c r="K27">
         <f>D44</f>
@@ -19424,35 +19735,39 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
-        <v>52</v>
-      </c>
-      <c r="B28" s="10">
-        <v>34.579999999999892</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.2348315256817079</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="A28" s="9">
+        <v>114</v>
+      </c>
+      <c r="B28" s="9">
+        <v>9.3099999999999952</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.37796237532989452</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>0.7102613343539852</v>
+      </c>
+      <c r="E28" s="19">
+        <v>115</v>
+      </c>
+      <c r="F28" s="9">
+        <v>9.0883333333332956</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.35226208899788108</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" si="1"/>
-        <v>0.42108454647007248</v>
-      </c>
-      <c r="E28" s="14">
-        <v>51</v>
-      </c>
-      <c r="F28" s="10">
-        <v>34.912499999999895</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0.23636103902288047</v>
-      </c>
-      <c r="H28" s="11">
+        <v>0.62292135901526158</v>
+      </c>
+      <c r="I28" s="25">
         <f t="shared" si="2"/>
-        <v>0.42442989452632085</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0.99211801972624503</v>
+        <v>1.1402102754620489</v>
+      </c>
+      <c r="J28" s="25">
+        <f t="shared" si="3"/>
+        <v>0.22166666666669954</v>
       </c>
       <c r="K28">
         <f>D47</f>
@@ -19460,35 +19775,39 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
-        <v>48</v>
-      </c>
-      <c r="B29" s="10">
-        <v>35.90999999999989</v>
-      </c>
-      <c r="C29" s="10">
-        <v>-0.18625302078836459</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="A29" s="9">
+        <v>120</v>
+      </c>
+      <c r="B29" s="9">
+        <v>7.9799999999999969</v>
+      </c>
+      <c r="C29" s="9">
+        <v>-0.33229895902409068</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81841112095169855</v>
+      </c>
+      <c r="E29" s="19">
+        <v>120</v>
+      </c>
+      <c r="F29" s="9">
+        <v>7.9799999999999969</v>
+      </c>
+      <c r="G29" s="9">
+        <v>-0.27065927001738049</v>
+      </c>
+      <c r="H29" s="20">
         <f t="shared" si="1"/>
-        <v>0.35330873680978048</v>
-      </c>
-      <c r="E29" s="14">
-        <v>49</v>
-      </c>
-      <c r="F29" s="10">
-        <v>35.577499999999894</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-0.18806885550344035</v>
-      </c>
-      <c r="H29" s="11">
+        <v>0.61668341229970713</v>
+      </c>
+      <c r="I29" s="25">
         <f t="shared" si="2"/>
-        <v>0.29393204923692295</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1.2020082115135295</v>
+        <v>1.3271171311381926</v>
+      </c>
+      <c r="J29" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K29">
         <f>D50</f>
@@ -19496,35 +19815,39 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
-        <v>46</v>
-      </c>
-      <c r="B30" s="10">
-        <v>37.239999999999888</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.16705571602141586</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="A30" s="9">
+        <v>125</v>
+      </c>
+      <c r="B30" s="9">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.48611216192760787</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>0.7929040958107284</v>
+      </c>
+      <c r="E30" s="19">
+        <v>125</v>
+      </c>
+      <c r="F30" s="9">
+        <v>6.6499999999999915</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.3460241422823267</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" si="1"/>
-        <v>0.31876493704743802</v>
-      </c>
-      <c r="E30" s="14">
-        <v>46</v>
-      </c>
-      <c r="F30" s="10">
-        <v>37.239999999999888</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0.1058631937334826</v>
-      </c>
-      <c r="H30" s="11">
+        <v>0.63627056498654799</v>
+      </c>
+      <c r="I30" s="25">
         <f t="shared" si="2"/>
-        <v>0.24502654698697651</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1.3009404122418653</v>
+        <v>1.2461744098243677</v>
+      </c>
+      <c r="J30" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K30">
         <f>D53</f>
@@ -19532,35 +19855,39 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
-        <v>43</v>
-      </c>
-      <c r="B31" s="10">
-        <v>38.569999999999894</v>
-      </c>
-      <c r="C31" s="10">
-        <v>-0.15170922102602219</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="A31" s="9">
+        <v>130</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5.3199999999999932</v>
+      </c>
+      <c r="C31" s="9">
+        <v>-0.30679193388312054</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>0.77628809086175354</v>
+      </c>
+      <c r="E31" s="19">
+        <v>130</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5.3199999999999932</v>
+      </c>
+      <c r="G31" s="9">
+        <v>-0.2902464227042213</v>
+      </c>
+      <c r="H31" s="20">
         <f t="shared" si="1"/>
-        <v>0.26629334247172809</v>
-      </c>
-      <c r="E31" s="14">
-        <v>43</v>
-      </c>
-      <c r="F31" s="10">
-        <v>38.569999999999894</v>
-      </c>
-      <c r="G31" s="10">
-        <v>-0.13916335325349391</v>
-      </c>
-      <c r="H31" s="11">
+        <v>0.68530082617080557</v>
+      </c>
+      <c r="I31" s="25">
         <f t="shared" si="2"/>
-        <v>0.22044903692769219</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>1.2079587472140916</v>
+        <v>1.1327698161395039</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K31">
         <f>D56</f>
@@ -19568,149 +19895,196 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>41</v>
-      </c>
-      <c r="B32" s="10">
-        <v>39.899999999999892</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.11458412144570589</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="A32" s="9">
+        <v>137</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3.9899999999999949</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.46949615697863301</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>0.76419047322346478</v>
+      </c>
+      <c r="E32" s="19">
+        <v>138</v>
+      </c>
+      <c r="F32" s="9">
+        <v>3.7683333333332953</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.39505440346658421</v>
+      </c>
+      <c r="H32" s="20">
         <f t="shared" si="1"/>
-        <v>0.23102077056250081</v>
-      </c>
-      <c r="E32" s="14">
-        <v>42</v>
-      </c>
-      <c r="F32" s="10">
-        <v>39.234999999999893</v>
-      </c>
-      <c r="G32" s="10">
-        <v>8.1285683674198292E-2</v>
-      </c>
-      <c r="H32" s="11">
+        <v>0.67831432584938456</v>
+      </c>
+      <c r="I32" s="25">
         <f t="shared" si="2"/>
-        <v>0.15170686412228279</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>1.5228102689953917</v>
+        <v>1.1266022905627804</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="3"/>
+        <v>0.22166666666669954</v>
       </c>
       <c r="K32">
         <f>D59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
-        <v>38</v>
-      </c>
-      <c r="B33" s="10">
-        <v>41.229999999999897</v>
-      </c>
-      <c r="C33" s="10">
-        <v>-0.11643664911679494</v>
-      </c>
-      <c r="D33" s="13">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>143</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2.6599999999999966</v>
+      </c>
+      <c r="C33" s="9">
+        <v>-0.29469431624483183</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>0.78751118192378033</v>
+      </c>
+      <c r="E33" s="19">
+        <v>145</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2.4181818181818002</v>
+      </c>
+      <c r="G33" s="9">
+        <v>-0.28325992238280034</v>
+      </c>
+      <c r="H33" s="20">
         <f t="shared" si="1"/>
-        <v>0.19370763664199597</v>
-      </c>
-      <c r="E33" s="14">
-        <v>39</v>
-      </c>
-      <c r="F33" s="10">
-        <v>40.786666666666598</v>
-      </c>
-      <c r="G33" s="10">
-        <v>-7.0421180448084514E-2</v>
-      </c>
-      <c r="H33" s="11">
+        <v>0.69715292493035874</v>
+      </c>
+      <c r="I33" s="25">
         <f t="shared" si="2"/>
-        <v>0.13698530987357443</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>1.4140759824595157</v>
+        <v>1.1296103821158721</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="3"/>
+        <v>0.24181818181819636</v>
       </c>
       <c r="K33">
         <f>D62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
-        <v>36</v>
-      </c>
-      <c r="B34" s="10">
-        <v>42.559999999999896</v>
-      </c>
-      <c r="C34" s="10">
-        <v>7.7270987525201021E-2</v>
-      </c>
-      <c r="D34" s="13">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>154</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1.3299999999999912</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.49281686567894856</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>0.80500171344901705</v>
+      </c>
+      <c r="E34" s="19">
+        <v>152</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1.5718181818180952</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.41389300254755845</v>
+      </c>
+      <c r="H34" s="20">
         <f t="shared" si="1"/>
-        <v>0.23539340344380999</v>
-      </c>
-      <c r="E34" s="14">
-        <v>36</v>
-      </c>
-      <c r="F34" s="10">
-        <v>42.559999999999896</v>
-      </c>
-      <c r="G34" s="10">
-        <v>6.6564129425489921E-2</v>
-      </c>
-      <c r="H34" s="11">
+        <v>0.6887940763315159</v>
+      </c>
+      <c r="I34" s="25">
         <f t="shared" si="2"/>
-        <v>0.17740720459036691</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1.3268536866207501</v>
+        <v>1.1687117254788506</v>
+      </c>
+      <c r="J34" s="25">
+        <f t="shared" si="3"/>
+        <v>-0.24181818181810399</v>
       </c>
       <c r="K34">
         <f>D65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="9">
+        <v>18.619999999999891</v>
+      </c>
+      <c r="O34">
+        <f>N34-1.33</f>
+        <v>17.289999999999893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B35" s="7">
-        <v>43.889999999999894</v>
+        <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>-0.15812241591860896</v>
-      </c>
-      <c r="D35" s="13" t="s">
+        <v>-0.3121848477700685</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="21">
+        <v>161</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0.29555555555548807</v>
+      </c>
+      <c r="G35" s="22">
+        <v>-0.27490107378395751</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="14">
-        <v>34</v>
-      </c>
-      <c r="F35" s="10">
-        <v>43.446666666666594</v>
-      </c>
-      <c r="G35" s="10">
-        <v>-0.11084307516487697</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I35" s="26"/>
+      <c r="J35" s="26">
+        <f t="shared" si="3"/>
+        <v>-0.29555555555548807</v>
+      </c>
+      <c r="N35" s="9">
+        <v>19.683999999999891</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O53" si="5">N35-1.33</f>
+        <v>18.353999999999893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36">
         <f>AVERAGE(I4:I35)</f>
-        <v>1.2526319878252914</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1.2475306342400687</v>
+      </c>
+      <c r="N36" s="9">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>19.506666666666597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N37" s="9">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>21.279999999999895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -19738,8 +20112,15 @@
       <c r="K38" s="2">
         <v>0.88666666666659211</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N38" s="9">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>22.609999999999893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -19761,8 +20142,15 @@
       <c r="K39" s="2">
         <v>0.88666666666659566</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N39" s="9">
+        <v>25.269999999999897</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>23.939999999999898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>42</v>
       </c>
@@ -19784,8 +20172,15 @@
       <c r="K40" s="2">
         <v>0.66499999999989079</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N40" s="9">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>25.269999999999897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>43</v>
       </c>
@@ -19807,8 +20202,15 @@
       <c r="K41" s="2">
         <v>1.3299999999998917</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N41" s="9">
+        <v>27.59749999999989</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>26.267499999999892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>46</v>
       </c>
@@ -19830,8 +20232,15 @@
       <c r="K42" s="2">
         <v>1.3299999999998864</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N42" s="9">
+        <v>28.816666666666592</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>27.486666666666594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>49</v>
       </c>
@@ -19853,8 +20262,15 @@
       <c r="K43" s="2">
         <v>0.99749999999989214</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N43" s="9">
+        <v>30.14666666666659</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>28.816666666666592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>51</v>
       </c>
@@ -19876,8 +20292,15 @@
       <c r="K44" s="2">
         <v>0.33249999999989299</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N44" s="9">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>30.589999999999897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>54</v>
       </c>
@@ -19899,8 +20322,15 @@
       <c r="K45" s="2">
         <v>1.3299999999998917</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N45" s="9">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>31.919999999999895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>57</v>
       </c>
@@ -19922,8 +20352,15 @@
       <c r="K46" s="2">
         <v>1.3299999999998935</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N46" s="9">
+        <v>34.912499999999895</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>33.582499999999897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>60</v>
       </c>
@@ -19945,8 +20382,15 @@
       <c r="K47" s="2">
         <v>0.88666666666658855</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N47" s="9">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
+        <v>34.247499999999896</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>63</v>
       </c>
@@ -19968,8 +20412,15 @@
       <c r="K48" s="2">
         <v>0.88666666666659033</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N48" s="9">
+        <v>37.239999999999888</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>35.90999999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>66</v>
       </c>
@@ -19991,8 +20442,15 @@
       <c r="K49" s="2">
         <v>0.99749999999988859</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N49" s="9">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>37.239999999999895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>69</v>
       </c>
@@ -20014,8 +20472,15 @@
       <c r="K50" s="2">
         <v>1.3299999999998935</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N50" s="9">
+        <v>39.234999999999893</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
+        <v>37.904999999999895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>71</v>
       </c>
@@ -20037,8 +20502,15 @@
       <c r="K51" s="2">
         <v>1.3299999999998953</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N51" s="9">
+        <v>40.786666666666598</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="5"/>
+        <v>39.456666666666599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>75</v>
       </c>
@@ -20060,8 +20532,15 @@
       <c r="K52" s="2">
         <v>1.3299999999998899</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N52" s="9">
+        <v>42.559999999999896</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="5"/>
+        <v>41.229999999999897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>78</v>
       </c>
@@ -20083,8 +20562,15 @@
       <c r="K53" s="2">
         <v>1.3299999999998917</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N53" s="9">
+        <v>43.446666666666594</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="5"/>
+        <v>42.116666666666596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>82</v>
       </c>
@@ -20107,7 +20593,7 @@
         <v>0.88666666666659388</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>85</v>
       </c>
@@ -20130,7 +20616,7 @@
         <v>1.0639999999998899</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>89</v>
       </c>
@@ -20153,7 +20639,7 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>92</v>
       </c>
@@ -20176,7 +20662,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>97</v>
       </c>
@@ -20199,7 +20685,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>101</v>
       </c>
@@ -20222,7 +20708,7 @@
         <v>1.0639999999998917</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>106</v>
       </c>
@@ -20245,7 +20731,7 @@
         <v>1.0639999999998935</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>109</v>
       </c>
@@ -20268,7 +20754,7 @@
         <v>0.26599999999989166</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>115</v>
       </c>
@@ -20291,7 +20777,7 @@
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>120</v>
       </c>
@@ -20314,7 +20800,7 @@
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>125</v>
       </c>
@@ -20453,9 +20939,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2">
-    <sortState ref="A3:K36">
-      <sortCondition descending="1" ref="A2"/>
+  <autoFilter ref="A2:D2">
+    <sortState ref="A3:D36">
+      <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -20464,7 +20950,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20482,13 +20969,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>0.80500171344901705</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>0.6887940763315159</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>1.1687117254788506</v>
       </c>
     </row>
@@ -20496,13 +20983,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>0.78751118192378033</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>0.69715292493035874</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>1.1296103821158721</v>
       </c>
     </row>
@@ -20510,13 +20997,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>0.76419047322346478</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.67831432584938456</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>1.1266022905627804</v>
       </c>
     </row>
@@ -20524,13 +21011,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>0.77628809086175354</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>0.68530082617080557</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>1.1327698161395039</v>
       </c>
     </row>
@@ -20538,13 +21025,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>0.7929040958107284</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.63627056498654799</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>1.2461744098243677</v>
       </c>
     </row>
@@ -20552,13 +21039,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>0.81841112095169855</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>0.61668341229970713</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>1.3271171311381926</v>
       </c>
     </row>
@@ -20566,13 +21053,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>0.7102613343539852</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>0.62292135901526158</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>1.1402102754620489</v>
       </c>
     </row>
@@ -20580,13 +21067,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>0.70166182302074387</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>0.56740363324682752</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>1.2366184879812223</v>
       </c>
     </row>
@@ -20594,13 +21081,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>0.7147797216646713</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0.56877598152424946</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>1.2566981463407612</v>
       </c>
     </row>
@@ -20608,13 +21095,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>0.72760611144984488</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>0.60545510821170923</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>1.2017507187261574</v>
       </c>
     </row>
@@ -20622,13 +21109,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>0.74713720498635916</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>0.56129044546558426</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>1.3311062232078743</v>
       </c>
     </row>
@@ -20636,13 +21123,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>0.73372779748367778</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>0.54794123949429774</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>1.3390629224419117</v>
       </c>
     </row>
@@ -20650,13 +21137,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>0.66624349668213956</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>0.49516821028070762</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>1.3454892354750529</v>
       </c>
     </row>
@@ -20664,13 +21151,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>0.69379108383438726</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>0.4636041999000024</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>1.4965159590530785</v>
       </c>
     </row>
@@ -20678,13 +21165,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>0.71128161535962398</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>0.47420870931644488</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>1.499933681911729</v>
       </c>
     </row>
@@ -20692,13 +21179,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>0.66857556755217118</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>0.4850627366015095</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>1.3783280328569576</v>
       </c>
     </row>
@@ -20706,13 +21193,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <v>0.61435491982393753</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>0.48855598676221995</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>1.257491334607151</v>
       </c>
     </row>
@@ -20720,13 +21207,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>0.58010262892034903</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>0.51063831813528249</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>1.1360342698893653</v>
       </c>
     </row>
@@ -20734,13 +21221,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>0.54526732029925273</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>0.4188157424823219</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <v>1.3019265156258264</v>
       </c>
     </row>
@@ -20748,13 +21235,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>0.5518262696212165</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>0.34932501607104594</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <v>1.5796929628108447</v>
       </c>
     </row>
@@ -20762,13 +21249,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="12">
         <v>0.46889199930571934</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>0.37926716030570706</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="13">
         <v>1.2363105704373942</v>
       </c>
     </row>
@@ -20776,13 +21263,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="12">
         <v>0.50693390537310901</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>0.3967334111092593</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>1.2777696336583579</v>
       </c>
     </row>
@@ -20790,13 +21277,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <v>0.4933787434410507</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>0.38276041046641751</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
         <v>1.2890015005466156</v>
       </c>
     </row>
@@ -20804,13 +21291,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <v>0.32634416737504063</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>0.42418037665769864</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>0.76935234474175351</v>
       </c>
     </row>
@@ -20818,13 +21305,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>0.38610348341959921</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>0.46560034284897978</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <v>0.82925944825782516</v>
       </c>
     </row>
@@ -20832,13 +21319,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>0.42108454647007248</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>0.42442989452632085</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>0.99211801972624503</v>
       </c>
     </row>
@@ -20846,13 +21333,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>0.35330873680978048</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>0.29393204923692295</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
         <v>1.2020082115135295</v>
       </c>
     </row>
@@ -20860,13 +21347,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="12">
         <v>0.31876493704743802</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>0.24502654698697651</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
         <v>1.3009404122418653</v>
       </c>
     </row>
@@ -20874,13 +21361,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="12">
         <v>0.26629334247172809</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>0.22044903692769219</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>1.2079587472140916</v>
       </c>
     </row>
@@ -20888,13 +21375,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="12">
         <v>0.23102077056250081</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>0.15170686412228279</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>1.5228102689953917</v>
       </c>
     </row>
@@ -20902,13 +21389,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="12">
         <v>0.19370763664199597</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>0.13698530987357443</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>1.4140759824595157</v>
       </c>
     </row>
@@ -20916,13 +21403,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="12">
         <v>0.23539340344380999</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>0.17740720459036691</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>1.3268536866207501</v>
       </c>
     </row>
@@ -20937,7 +21424,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD40"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Graphs/11次高調波の比較.xlsx
+++ b/Graphs/11次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+              <a:t>11</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              <a:t>次高調波と等しいエネルギーによって生成された光電子の信号強度と、高次高調波と赤外光の時間差の関係</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12121313703407562"/>
+          <c:y val="0.94098356606929279"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -566,11 +633,11 @@
           <c:x val="6.6533801918827948E-2"/>
           <c:y val="2.6331538001196888E-2"/>
           <c:w val="0.91644171597194424"/>
-          <c:h val="0.91093946290824956"/>
+          <c:h val="0.86121275499278205"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -588,19 +655,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1406,7 +1461,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1424,19 +1479,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2242,7 +2285,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2252,11 +2295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1262816048"/>
-        <c:axId val="1262809384"/>
+        <c:axId val="822788552"/>
+        <c:axId val="822789728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1262816048"/>
+        <c:axId val="822788552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2299,6 +2342,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46364679599760161"/>
+              <c:y val="0.87989402866081368"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2365,12 +2416,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262809384"/>
+        <c:crossAx val="822789728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1262809384"/>
+        <c:axId val="822789728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,6 +2467,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2482,7 +2534,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262816048"/>
+        <c:crossAx val="822788552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3520,8 +3572,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1262832120"/>
-        <c:axId val="1262836824"/>
+        <c:axId val="903171448"/>
+        <c:axId val="903167136"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -4046,7 +4098,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1262832120"/>
+        <c:axId val="903171448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,12 +4155,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262836824"/>
+        <c:crossAx val="903167136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1262836824"/>
+        <c:axId val="903167136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4217,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262832120"/>
+        <c:crossAx val="903171448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5088,11 +5140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1262835256"/>
-        <c:axId val="1262832512"/>
+        <c:axId val="903319904"/>
+        <c:axId val="6599896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1262835256"/>
+        <c:axId val="903319904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,12 +5252,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262832512"/>
+        <c:crossAx val="6599896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1262832512"/>
+        <c:axId val="6599896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5317,7 +5369,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262835256"/>
+        <c:crossAx val="903319904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5941,11 +5993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1262837216"/>
-        <c:axId val="1262830552"/>
+        <c:axId val="732037200"/>
+        <c:axId val="7367832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1262837216"/>
+        <c:axId val="732037200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -6055,12 +6107,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262830552"/>
+        <c:crossAx val="7367832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1262830552"/>
+        <c:axId val="7367832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6173,7 +6225,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262837216"/>
+        <c:crossAx val="732037200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6278,6 +6330,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6566,8 +6619,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1262832904"/>
-        <c:axId val="1262833296"/>
+        <c:axId val="739931384"/>
+        <c:axId val="739932952"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6833,7 +6886,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1262832904"/>
+        <c:axId val="739931384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6890,12 +6943,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262833296"/>
+        <c:crossAx val="739932952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1262833296"/>
+        <c:axId val="739932952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6952,7 +7005,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262832904"/>
+        <c:crossAx val="739931384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7016,6 +7069,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7304,11 +7358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1262836432"/>
-        <c:axId val="1262830160"/>
+        <c:axId val="739934912"/>
+        <c:axId val="739931776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1262836432"/>
+        <c:axId val="739934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,12 +7419,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262830160"/>
+        <c:crossAx val="739931776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1262830160"/>
+        <c:axId val="739931776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7427,7 +7481,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262836432"/>
+        <c:crossAx val="739934912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10816,16 +10870,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10925,16 +10979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>20706</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>477906</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11312,8 +11366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11328,7 +11382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B132"/>
     </sheetView>
   </sheetViews>

--- a/Graphs/11次高調波の比較.xlsx
+++ b/Graphs/11次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,83 +556,16 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
-              <a:t>11</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
-              <a:t>次高調波と等しいエネルギーによって生成された光電子の信号強度と、高次高調波と赤外光の時間差の関係</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12121313703407562"/>
-          <c:y val="0.94098356606929279"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6533801918827948E-2"/>
+          <c:x val="7.3809248287164786E-2"/>
           <c:y val="2.6331538001196888E-2"/>
-          <c:w val="0.91644171597194424"/>
+          <c:w val="0.9091662524283477"/>
           <c:h val="0.86121275499278205"/>
         </c:manualLayout>
       </c:layout>
@@ -2295,11 +2228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="822788552"/>
-        <c:axId val="822789728"/>
+        <c:axId val="216011976"/>
+        <c:axId val="216015112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="822788552"/>
+        <c:axId val="216011976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2322,7 +2255,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2335,10 +2268,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+                  <a:t>高次高調波と赤外光の時間差</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2346,8 +2282,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46364679599760161"/>
-              <c:y val="0.87989402866081368"/>
+              <c:x val="0.39920726488626845"/>
+              <c:y val="0.88727220388502082"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2363,7 +2299,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2385,12 +2321,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2401,7 +2334,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2416,12 +2349,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="822789728"/>
+        <c:crossAx val="216015112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="822789728"/>
+        <c:axId val="216015112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2400,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.0582542895247148E-3"/>
+              <c:y val="0.33701033359105315"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2503,12 +2443,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2519,7 +2456,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2534,7 +2471,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="822788552"/>
+        <c:crossAx val="216011976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2555,7 +2492,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2578,7 +2515,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2598,10 +2535,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88027981945203237"/>
-          <c:y val="0.27577920804870709"/>
-          <c:w val="7.2897369508862914E-2"/>
-          <c:h val="0.11540737853761118"/>
+          <c:x val="0.7908959610659082"/>
+          <c:y val="5.0096185616101477E-2"/>
+          <c:w val="0.15188775644652758"/>
+          <c:h val="0.21868606261838719"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2617,7 +2554,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2677,86 +2614,43 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2679439081414257E-2"/>
-          <c:y val="9.0583494240458945E-2"/>
-          <c:w val="0.94406255715210741"/>
-          <c:h val="0.88630847151452608"/>
+          <c:x val="0.19514159414283738"/>
+          <c:y val="9.0583581358550269E-2"/>
+          <c:w val="0.76360109591564218"/>
+          <c:h val="0.8470248132980005"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3562,7 +3456,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3572,8 +3466,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="903171448"/>
-        <c:axId val="903167136"/>
+        <c:axId val="216015504"/>
+        <c:axId val="216010016"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3583,26 +3477,14 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
+                  <c:symbol val="none"/>
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
@@ -3832,7 +3714,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
-                <c:smooth val="1"/>
+                <c:smooth val="0"/>
               </c15:ser>
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
@@ -3842,26 +3724,16 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent1">
+                        <a:shade val="65000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
+                  <c:symbol val="none"/>
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
@@ -4091,45 +3963,99 @@
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
-                <c:smooth val="1"/>
+                <c:smooth val="0"/>
               </c15:ser>
             </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="903171448"/>
+        <c:axId val="216015504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>時間差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4140,7 +4066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4155,43 +4081,111 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="903167136"/>
+        <c:crossAx val="216010016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="903167136"/>
+        <c:axId val="216010016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>[a.u.]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4619883040935672E-2"/>
+              <c:y val="0.16452950558213716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4202,7 +4196,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4217,7 +4211,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="903171448"/>
+        <c:crossAx val="216015504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4239,10 +4233,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4273,10 +4264,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4287,851 +4278,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6533801918827948E-2"/>
-          <c:y val="2.6331538001196888E-2"/>
-          <c:w val="0.91644171597194424"/>
-          <c:h val="0.91093946290824956"/>
+          <c:x val="0.19514159414283738"/>
+          <c:y val="9.0583581358550269E-2"/>
+          <c:w val="0.76360109591564218"/>
+          <c:h val="0.8470248132980005"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>変化後</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>強!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>42.559999999999896</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.116666666666596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.673333333333197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.229999999999897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40.564999999999891</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.899999999999899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.456666666666599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.0133333333332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.569999999999894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.904999999999895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37.239999999999895</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.796666666666596</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36.353333333333197</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.90999999999989</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35.244999999999898</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.579999999999892</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34.247499999999896</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33.9149999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33.582499999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32.584999999999894</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.476666666666596</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>31.033333333333296</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.924999999999898</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.259999999999899</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.816666666666592</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28.373333333333292</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.486666666666594</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27.043333333333294</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26.267499999999892</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25.934999999999896</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25.602499999999893</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.604999999999897</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23.939999999999898</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>23.607499999999895</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23.274999999999892</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.942499999999896</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22.166666666666593</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21.723333333333294</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20.836666666666595</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>20.393333333333295</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19.949999999999896</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19.506666666666597</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19.063333333333297</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18.619999999999898</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18.353999999999893</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.087999999999894</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17.821999999999896</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>17.555999999999898</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.289999999999893</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>16.957499999999893</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>16.624999999999893</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>16.292499999999894</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.959999999999894</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15.627499999999891</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15.294999999999895</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14.962499999999892</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14.186666666666596</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13.743333333333297</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.299999999999891</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.033999999999892</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.767999999999894</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12.501999999999896</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.235999999999891</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11.969999999999892</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11.703999999999894</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11.437999999999896</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>11.17199999999989</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10.905999999999892</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>10.307499999999891</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.9749999999999943</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.6424999999998917</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.3099999999999952</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.8666666666665961</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.644999999999996</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.4233333333332965</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.2016666666665969</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.9799999999999969</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.7139999999999915</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.4479999999998938</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.1819999999999951</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.9159999999999968</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.3839999999999932</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.117999999999995</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.8519999999999968</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.5859999999999914</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.1299999999999955</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.9399999999999906</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4.7499999999999929</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.5599999999999952</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4.3699999999999903</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.1799999999999926</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.7683333333332953</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.5466666666665958</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.3249999999999957</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.1033333333332962</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2.8816666666665967</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.6599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.5390909090908949</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.4181818181818002</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.2972727272726914</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.1763636363635968</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2.0554545454544879</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.9345454545453933</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.8136363636362987</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.6927272727271898</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.5718181818180952</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.4509090909089863</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.1822222222221868</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.0344444444443965</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.88666666666659211</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.73888888888878768</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.59111111111109693</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.4433333333332925</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.29555555555548807</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.14777777777769785</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>強!$I:$I</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="1">
-                  <c:v>-3.5738196709602099E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.11084307516487697</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3320397133401637E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6564129425489921E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1506868884074245E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.5824385133687239E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-7.0421180448084514E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.8037665769862086E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4606556986738467E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1285683674198292E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.13916335325349391</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-8.1275207733149155E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.3348491702578457E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1058631937334826</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5854146329849348E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.1422823266112711</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.18806885550344035</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9.3002547558391421E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.23636103902288047</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15676483893240642</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-5.0584509892621553E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.22923930382609933</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.9154305849860662E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.4759410490226372E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.19494107283159931</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8540987119354352E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.15226304135615815</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.18781933763481817</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-7.4787743148972588E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.5546772695888248E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.20891407347444116</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-7.2666841265684096E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.12494083474202991</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.17035308683126588</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-9.8491940668079286E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.10573843479917151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.17897192923978006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-2.5258446227470723E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.23984381324254181</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.18881740910930689</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.10186043189447866</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.16150567843622776</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.27079450489274071</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.15015261541391878</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.13454727268398367</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.21776148186947925</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.1157086736030094</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.3483726577938676E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.15439441918049576</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.26730125473203026</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.4510130711173604E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.19780005237970522</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.20690745458441462</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.20478655270112611</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-3.2868741220447077E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.16524844646556042</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.25669674531558778</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.299778576700609E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.12494083474202991</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.23847146496511984</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.21576533892050184</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.11396204852265418</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.0517844813218798E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.16711983048022672</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.30946977452917795</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.19356872455417734</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-8.6140806171281586E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.20366372229232632</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.25182067093640625</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.17272350658317653</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-8.2398038141948945E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.13830051665436544</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.29462346134615852</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.35363443727530303</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.13904907026023197</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-6.9298350039284723E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.21514154424894641</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.2091531154020142</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.19580390943072778</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-6.7676483893240588E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.1253255874860123</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.24284850360705704</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.35226208899788108</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.29350063093735873</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-1.9893812052093944E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.13629389776433889</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.26878788600271419</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.27065927001738049</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.21189781195685814</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-7.5162019951905856E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8.7897907192685948E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.23049736911025934</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.3460241422823267</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.26542987071736396</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.14740791885907484</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.3195638199090548E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.15962381848051233</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.2902464227042213</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.20977691007356963</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.26342325182733739</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.10772410180709978</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>6.6798409561677641E-3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.12021047117925769</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.24484464655603444</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.30410514035380115</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.39505440346658421</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.26393276350563089</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>9.0767362681840963E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-8.8635984857503347E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.18008428370753074</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.25169591200209512</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.27951715435346774</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.28325992238280034</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.235851527344587</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.14016142472798263</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-6.9048832170662558E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7.6669603104688039E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.21078545748910746</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.31720482845646542</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.41389300254755845</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.3518878121949478</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.33866336515797252</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.29637008642651375</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.26967167448394092</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.1284445608437895</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-3.9231446870312561E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.1331749244065617</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.26254993928715981</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.27490107378395751</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.27103354682031378</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.25543868003142778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5140,13 +4295,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="903319904"/>
-        <c:axId val="6599896"/>
+        <c:axId val="613295840"/>
+        <c:axId val="613297016"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="903319904"/>
+        <c:axId val="613295840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5166,7 +4323,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5179,13 +4336,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>時間差</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5199,7 +4361,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5216,17 +4378,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5237,7 +4396,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5252,14 +4411,17 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6599896"/>
+        <c:crossAx val="613297016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6599896"/>
+        <c:axId val="613297016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5279,7 +4441,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5292,17 +4454,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[a.u]</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>[a.u.]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4619883040935672E-2"/>
+              <c:y val="0.16452950558213716"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5316,7 +4491,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5333,17 +4508,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5354,7 +4526,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5369,7 +4541,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="903319904"/>
+        <c:crossAx val="613295840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5381,47 +4553,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.4111738857501569"/>
-          <c:y val="0.10053822266830652"/>
-          <c:w val="6.5988700564971747E-2"/>
-          <c:h val="8.079051159897653E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5432,10 +4563,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5460,6 +4588,1157 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19514159414283738"/>
+          <c:y val="9.0583581358550269E-2"/>
+          <c:w val="0.76360109591564218"/>
+          <c:h val="0.8470248132980005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>強!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.116666666666596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.673333333333197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.564999999999891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.0133333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.904999999999895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.796666666666596</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.353333333333197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.244999999999898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.579999999999892</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.9149999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.584999999999894</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.476666666666596</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.033333333333296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.924999999999898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.373333333333292</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.486666666666594</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.043333333333294</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.934999999999896</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.602499999999893</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.604999999999897</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.607499999999895</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.274999999999892</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.942499999999896</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.166666666666593</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.723333333333294</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.836666666666595</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.393333333333295</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.063333333333297</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.087999999999894</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.821999999999896</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.957499999999893</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.624999999999893</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.959999999999894</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.627499999999891</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.294999999999895</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.962499999999892</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.743333333333297</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.767999999999894</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.501999999999896</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.235999999999891</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.437999999999896</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.17199999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.307499999999891</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.9749999999999943</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.6424999999998917</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.3099999999999952</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.8666666666665961</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.4233333333332965</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.7139999999999915</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.4479999999998938</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.1819999999999951</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.9159999999999968</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.3839999999999932</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8519999999999968</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.5859999999999914</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.9399999999999906</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.7499999999999929</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.3699999999999903</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.5466666666665958</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.3249999999999957</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.1033333333332962</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8816666666665967</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.2972727272726914</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.1763636363635968</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.0554545454544879</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.9345454545453933</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8136363636362987</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.6927272727271898</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4509090909089863</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.1822222222221868</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0344444444443965</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.88666666666659211</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.73888888888878768</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.59111111111109693</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.4433333333332925</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.29555555555548807</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>強!$I:$I</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>-3.5738196709602099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11084307516487697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3320397133401637E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6564129425489921E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1506868884074245E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5824385133687239E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.0421180448084514E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8037665769862086E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4606556986738467E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1285683674198292E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13916335325349391</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.1275207733149155E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3348491702578457E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1058631937334826</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5854146329849348E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.1422823266112711</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.18806885550344035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.3002547558391421E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23636103902288047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15676483893240642</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.0584509892621553E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.22923930382609933</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.9154305849860662E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.4759410490226372E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19494107283159931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8540987119354352E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.15226304135615815</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.18781933763481817</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.4787743148972588E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5546772695888248E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20891407347444116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.2666841265684096E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.12494083474202991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.17035308683126588</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.8491940668079286E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10573843479917151</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17897192923978006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.5258446227470723E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.23984381324254181</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.18881740910930689</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.10186043189447866</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16150567843622776</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27079450489274071</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15015261541391878</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.13454727268398367</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.21776148186947925</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.1157086736030094</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3483726577938676E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.15439441918049576</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26730125473203026</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.4510130711173604E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.19780005237970522</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.20690745458441462</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.20478655270112611</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.2868741220447077E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16524844646556042</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.25669674531558778</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.299778576700609E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.12494083474202991</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.23847146496511984</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.21576533892050184</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.11396204852265418</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0517844813218798E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.16711983048022672</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.30946977452917795</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.19356872455417734</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-8.6140806171281586E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.20366372229232632</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.25182067093640625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.17272350658317653</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.2398038141948945E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.13830051665436544</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.29462346134615852</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.35363443727530303</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.13904907026023197</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-6.9298350039284723E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.21514154424894641</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.2091531154020142</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.19580390943072778</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-6.7676483893240588E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1253255874860123</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24284850360705704</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.35226208899788108</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.29350063093735873</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.9893812052093944E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.13629389776433889</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.26878788600271419</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.27065927001738049</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.21189781195685814</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-7.5162019951905856E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.7897907192685948E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.23049736911025934</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.3460241422823267</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.26542987071736396</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.14740791885907484</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.3195638199090548E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.15962381848051233</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.2902464227042213</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.20977691007356963</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.26342325182733739</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.10772410180709978</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.6798409561677641E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.12021047117925769</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.24484464655603444</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.30410514035380115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.39505440346658421</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.26393276350563089</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.0767362681840963E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-8.8635984857503347E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.18008428370753074</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.25169591200209512</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.27951715435346774</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.28325992238280034</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.235851527344587</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.14016142472798263</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.9048832170662558E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.6669603104688039E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.21078545748910746</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.31720482845646542</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.41389300254755845</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.3518878121949478</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.33866336515797252</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.29637008642651375</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.26967167448394092</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.1284445608437895</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-3.9231446870312561E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.1331749244065617</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.26254993928715981</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.27490107378395751</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.27103354682031378</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.25543868003142778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515972944"/>
+        <c:axId val="515973728"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515972944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>時間差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515973728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515973728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>[a.u.]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4619883040935672E-2"/>
+              <c:y val="0.16452950558213716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515972944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5993,11 +6272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="732037200"/>
-        <c:axId val="7367832"/>
+        <c:axId val="216013152"/>
+        <c:axId val="216009232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="732037200"/>
+        <c:axId val="216013152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -6020,7 +6299,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6033,10 +6312,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>高次高調波と赤外光の時間差</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6054,7 +6337,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6076,12 +6359,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6092,7 +6372,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6107,12 +6387,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7367832"/>
+        <c:crossAx val="216009232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7367832"/>
+        <c:axId val="216009232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,7 +6414,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6147,18 +6427,33 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[a.u]</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>(11</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>次</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
+                  <a:t>)[a.u]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.130798714861008E-3"/>
+              <c:y val="0.31861685036848297"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6172,7 +6467,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6194,12 +6489,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6210,7 +6502,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6225,7 +6517,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732037200"/>
+        <c:crossAx val="216013152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6238,17 +6530,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.4111738857501569"/>
-          <c:y val="0.10053822266830652"/>
-          <c:w val="0.20880279010071484"/>
-          <c:h val="0.10067184554950767"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6262,7 +6545,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6315,7 +6598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6619,8 +6902,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="739931384"/>
-        <c:axId val="739932952"/>
+        <c:axId val="216010408"/>
+        <c:axId val="216011584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6886,7 +7169,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="739931384"/>
+        <c:axId val="216010408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6943,12 +7226,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739932952"/>
+        <c:crossAx val="216011584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="739932952"/>
+        <c:axId val="216011584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,7 +7288,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739931384"/>
+        <c:crossAx val="216010408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7054,7 +7337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7358,11 +7641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="739934912"/>
-        <c:axId val="739931776"/>
+        <c:axId val="451546432"/>
+        <c:axId val="451548000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="739934912"/>
+        <c:axId val="451546432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7419,12 +7702,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739931776"/>
+        <c:crossAx val="451548000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="739931776"/>
+        <c:axId val="451548000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7481,7 +7764,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="739934912"/>
+        <c:crossAx val="451546432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7571,122 +7854,20 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7731,6 +7912,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10866,20 +11087,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>625929</xdr:colOff>
+      <xdr:colOff>625930</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>299358</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10907,16 +11644,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10942,20 +11679,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10972,6 +11709,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10979,16 +11748,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>20706</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592206</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>444775</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>461340</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>81170</xdr:rowOff>
+      <xdr:rowOff>6627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11366,7 +12135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -11382,8 +12151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B132"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15000,7 +15769,7 @@
   <dimension ref="A2:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18748,7 +19517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -21014,7 +21783,7 @@
   <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
